--- a/Datasets/test_c_data.xlsx
+++ b/Datasets/test_c_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E599"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,16 +471,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.74</v>
+        <v>56.87</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45862.43075231482</v>
+        <v>45862.43306712963</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.74</v>
+        <v>56.87</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45862.43077546296</v>
+        <v>45862.43309027778</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.74</v>
+        <v>56.88</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45862.43079861111</v>
+        <v>45862.43311342593</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.74</v>
+        <v>56.88</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45862.43082175926</v>
+        <v>45862.43313657407</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45862.43084490741</v>
+        <v>45862.43315972222</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.87</v>
+        <v>56.88</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45862.43086805556</v>
+        <v>45862.43318287037</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56.58</v>
+        <v>56.74</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45862.4308912037</v>
+        <v>45862.43320601852</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45862.43091435185</v>
+        <v>45862.43322916667</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.82</v>
+        <v>56.76</v>
       </c>
       <c r="C10" t="n">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45862.4309375</v>
+        <v>45862.43325231481</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45862.43096064815</v>
+        <v>45862.43327546296</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C12" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45862.43098379629</v>
+        <v>45862.43329861111</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -680,13 +680,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.95</v>
+        <v>56.8</v>
       </c>
       <c r="C13" t="n">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45862.43100694445</v>
+        <v>45862.43332175926</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -699,13 +699,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.87</v>
+        <v>56.74</v>
       </c>
       <c r="C14" t="n">
         <v>12</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45862.43103009259</v>
+        <v>45862.4333449074</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.95</v>
+        <v>56.66</v>
       </c>
       <c r="C15" t="n">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45862.43105324074</v>
+        <v>45862.43336805556</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C16" t="n">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45862.43107638889</v>
+        <v>45862.4333912037</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C17" t="n">
         <v>15</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45862.43109953704</v>
+        <v>45862.43341435185</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C18" t="n">
         <v>16</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45862.43112268519</v>
+        <v>45862.4334375</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C19" t="n">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45862.43114583333</v>
+        <v>45862.43346064815</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C20" t="n">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45862.43116898148</v>
+        <v>45862.4334837963</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C21" t="n">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45862.43119212963</v>
+        <v>45862.43350694444</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45862.43121527778</v>
+        <v>45862.4335300926</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.88</v>
+        <v>56.95</v>
       </c>
       <c r="C23" t="n">
         <v>21</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45862.43123842592</v>
+        <v>45862.43355324074</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C24" t="n">
         <v>22</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45862.43126157407</v>
+        <v>45862.43357638889</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C25" t="n">
         <v>23</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45862.43128472222</v>
+        <v>45862.43359953703</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C26" t="n">
         <v>24</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45862.43130787037</v>
+        <v>45862.43362268519</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C27" t="n">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45862.43133101852</v>
+        <v>45862.43364583333</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C28" t="n">
         <v>26</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45862.43135416666</v>
+        <v>45862.43366898148</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.8</v>
+        <v>56.82</v>
       </c>
       <c r="C29" t="n">
         <v>27</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45862.43137731482</v>
+        <v>45862.43369212963</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C30" t="n">
         <v>28</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45862.43140046296</v>
+        <v>45862.43371527778</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C31" t="n">
         <v>29</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45862.43142361111</v>
+        <v>45862.43373842593</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.95</v>
+        <v>56.74</v>
       </c>
       <c r="C32" t="n">
         <v>30</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45862.43144675926</v>
+        <v>45862.43376157407</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>56.95</v>
+        <v>56.8</v>
       </c>
       <c r="C33" t="n">
         <v>31</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45862.43146990741</v>
+        <v>45862.43378472222</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.95</v>
+        <v>56.52</v>
       </c>
       <c r="C34" t="n">
         <v>32</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45862.43149305556</v>
+        <v>45862.43380787037</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56.95</v>
+        <v>56.52</v>
       </c>
       <c r="C35" t="n">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45862.4315162037</v>
+        <v>45862.43383101852</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C36" t="n">
         <v>34</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45862.43153935186</v>
+        <v>45862.43385416667</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1136,13 +1136,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.74</v>
+        <v>56.52</v>
       </c>
       <c r="C37" t="n">
         <v>35</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45862.4315625</v>
+        <v>45862.43387731481</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56.73</v>
+        <v>56.6</v>
       </c>
       <c r="C38" t="n">
         <v>36</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45862.43158564815</v>
+        <v>45862.43390046297</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C39" t="n">
         <v>37</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45862.43160879629</v>
+        <v>45862.43392361111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C40" t="n">
         <v>38</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45862.43163194445</v>
+        <v>45862.43394675926</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56.74</v>
+        <v>56.58</v>
       </c>
       <c r="C41" t="n">
         <v>39</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45862.43165509259</v>
+        <v>45862.4339699074</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C42" t="n">
         <v>40</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45862.43167824074</v>
+        <v>45862.43399305556</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C43" t="n">
         <v>41</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45862.43170138889</v>
+        <v>45862.4340162037</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C44" t="n">
         <v>42</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45862.43172453704</v>
+        <v>45862.43403935185</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C45" t="n">
         <v>43</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45862.43174768519</v>
+        <v>45862.4340625</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C46" t="n">
         <v>44</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45862.43177083333</v>
+        <v>45862.43408564815</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>56.73</v>
+        <v>56.8</v>
       </c>
       <c r="C47" t="n">
         <v>45</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45862.43179398148</v>
+        <v>45862.4341087963</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C48" t="n">
         <v>46</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45862.43181712963</v>
+        <v>45862.43413194444</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45862.43184027778</v>
+        <v>45862.43415509259</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C50" t="n">
         <v>48</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45862.43186342593</v>
+        <v>45862.43417824074</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C51" t="n">
         <v>49</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45862.43188657407</v>
+        <v>45862.43420138889</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45862.43190972223</v>
+        <v>45862.43422453704</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1440,13 +1440,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C53" t="n">
         <v>51</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45862.43193287037</v>
+        <v>45862.43424768518</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>57.01</v>
+        <v>56.66</v>
       </c>
       <c r="C54" t="n">
         <v>52</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45862.43195601852</v>
+        <v>45862.43427083334</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C55" t="n">
         <v>53</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45862.43197916666</v>
+        <v>45862.43429398148</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>57.01</v>
+        <v>56.66</v>
       </c>
       <c r="C56" t="n">
         <v>54</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45862.43200231482</v>
+        <v>45862.43431712963</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1516,13 +1516,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C57" t="n">
         <v>55</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45862.43202546296</v>
+        <v>45862.43434027778</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C58" t="n">
         <v>56</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45862.43204861111</v>
+        <v>45862.43436342593</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C59" t="n">
         <v>57</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45862.43207175926</v>
+        <v>45862.43438657407</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C60" t="n">
         <v>58</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45862.43209490741</v>
+        <v>45862.43440972222</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -1592,13 +1592,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C61" t="n">
         <v>59</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45862.43211805556</v>
+        <v>45862.43443287037</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45862.4321412037</v>
+        <v>45862.43445601852</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C63" t="n">
         <v>61</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45862.43216435185</v>
+        <v>45862.43447916667</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C64" t="n">
         <v>62</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45862.4321875</v>
+        <v>45862.43450231481</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C65" t="n">
         <v>63</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45862.43221064815</v>
+        <v>45862.43452546297</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45862.43223379629</v>
+        <v>45862.43454861111</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C67" t="n">
         <v>65</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45862.43225694444</v>
+        <v>45862.43457175926</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -1725,13 +1725,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C68" t="n">
         <v>66</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45862.43228009259</v>
+        <v>45862.4345949074</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>56.6</v>
+        <v>56.52</v>
       </c>
       <c r="C69" t="n">
         <v>67</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45862.43230324074</v>
+        <v>45862.43461805556</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>68</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45862.43232638889</v>
+        <v>45862.4346412037</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C71" t="n">
         <v>69</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45862.43234953703</v>
+        <v>45862.43466435185</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45862.43237268519</v>
+        <v>45862.4346875</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>71</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45862.43239583333</v>
+        <v>45862.43471064815</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C74" t="n">
         <v>72</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45862.43241898148</v>
+        <v>45862.4347337963</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C75" t="n">
         <v>73</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45862.43244212963</v>
+        <v>45862.43476851852</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45862.43246527778</v>
+        <v>45862.43478009259</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>56.88</v>
+        <v>56.6</v>
       </c>
       <c r="C77" t="n">
         <v>75</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45862.43248842593</v>
+        <v>45862.43480324074</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -1915,13 +1915,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>56.74</v>
+        <v>56.73</v>
       </c>
       <c r="C78" t="n">
         <v>76</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45862.43251157407</v>
+        <v>45862.43482638889</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>56.73</v>
+        <v>56.66</v>
       </c>
       <c r="C79" t="n">
         <v>77</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45862.43253472223</v>
+        <v>45862.43484953704</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -1953,13 +1953,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C80" t="n">
         <v>78</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45862.43255787037</v>
+        <v>45862.43487268518</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -1978,7 +1978,7 @@
         <v>79</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45862.43258101852</v>
+        <v>45862.43489583334</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C82" t="n">
         <v>80</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45862.43260416666</v>
+        <v>45862.43491898148</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C83" t="n">
         <v>81</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45862.43262731482</v>
+        <v>45862.43494212963</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>82</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45862.43265046296</v>
+        <v>45862.43497685185</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2048,13 +2048,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C85" t="n">
         <v>83</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45862.43267361111</v>
+        <v>45862.43498842593</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>84</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45862.43269675926</v>
+        <v>45862.43501157407</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C87" t="n">
         <v>85</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45862.43271990741</v>
+        <v>45862.43503472222</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>56.74</v>
+        <v>56.58</v>
       </c>
       <c r="C88" t="n">
         <v>86</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45862.43274305556</v>
+        <v>45862.43505787037</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -2124,13 +2124,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C89" t="n">
         <v>87</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45862.4327662037</v>
+        <v>45862.43508101852</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C90" t="n">
         <v>88</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45862.43278935185</v>
+        <v>45862.43510416667</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C91" t="n">
         <v>89</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45862.4328125</v>
+        <v>45862.43513888889</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C92" t="n">
         <v>90</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45862.43283564815</v>
+        <v>45862.43516203704</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2200,13 +2200,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>56.74</v>
+        <v>56.77</v>
       </c>
       <c r="C93" t="n">
         <v>91</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45862.4328587963</v>
+        <v>45862.43517361111</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C94" t="n">
         <v>92</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45862.43288194444</v>
+        <v>45862.43519675926</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>56.52</v>
+        <v>56.8</v>
       </c>
       <c r="C95" t="n">
         <v>93</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45862.4329050926</v>
+        <v>45862.43521990741</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>56.52</v>
+        <v>56.8</v>
       </c>
       <c r="C96" t="n">
         <v>94</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45862.43292824074</v>
+        <v>45862.43525462963</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>56.52</v>
+        <v>56.58</v>
       </c>
       <c r="C97" t="n">
         <v>95</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45862.43295138889</v>
+        <v>45862.43526620371</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C98" t="n">
         <v>96</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45862.43297453703</v>
+        <v>45862.43530092593</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2314,13 +2314,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>56.74</v>
+        <v>56.52</v>
       </c>
       <c r="C99" t="n">
         <v>97</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45862.43299768519</v>
+        <v>45862.43532407407</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C100" t="n">
         <v>98</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45862.43302083333</v>
+        <v>45862.43534722222</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C101" t="n">
         <v>99</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45862.43304398148</v>
+        <v>45862.43537037037</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>56.87</v>
+        <v>56.8</v>
       </c>
       <c r="C102" t="n">
         <v>100</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45862.43306712963</v>
+        <v>45862.43539351852</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>56.87</v>
+        <v>56.8</v>
       </c>
       <c r="C103" t="n">
         <v>101</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45862.43309027778</v>
+        <v>45862.43541666667</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C104" t="n">
         <v>102</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45862.43311342593</v>
+        <v>45862.43543981481</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>56.88</v>
+        <v>56.6</v>
       </c>
       <c r="C105" t="n">
         <v>103</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45862.43313657407</v>
+        <v>45862.43546296296</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>56.88</v>
+        <v>56.6</v>
       </c>
       <c r="C106" t="n">
         <v>104</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45862.43315972222</v>
+        <v>45862.43548611111</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2466,13 +2466,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C107" t="n">
         <v>105</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45862.43318287037</v>
+        <v>45862.43550925926</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>106</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45862.43320601852</v>
+        <v>45862.43553240741</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C109" t="n">
         <v>107</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45862.43322916667</v>
+        <v>45862.43555555555</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>56.76</v>
+        <v>56.8</v>
       </c>
       <c r="C110" t="n">
         <v>108</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45862.43325231481</v>
+        <v>45862.43557870371</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C111" t="n">
         <v>109</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45862.43327546296</v>
+        <v>45862.43560185185</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C112" t="n">
         <v>110</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45862.43329861111</v>
+        <v>45862.435625</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -2586,7 +2586,7 @@
         <v>111</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45862.43332175926</v>
+        <v>45862.43564814814</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C114" t="n">
         <v>112</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45862.4333449074</v>
+        <v>45862.4356712963</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -2618,13 +2618,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C115" t="n">
         <v>113</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45862.43336805556</v>
+        <v>45862.43569444444</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>114</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45862.4333912037</v>
+        <v>45862.43571759259</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C117" t="n">
         <v>115</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45862.43341435185</v>
+        <v>45862.43574074074</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>116</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45862.4334375</v>
+        <v>45862.43576388889</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C119" t="n">
         <v>117</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45862.43346064815</v>
+        <v>45862.43578703704</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C120" t="n">
         <v>118</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45862.4334837963</v>
+        <v>45862.43581018518</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -2732,13 +2732,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C121" t="n">
         <v>119</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45862.43350694444</v>
+        <v>45862.43583333334</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C122" t="n">
         <v>120</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45862.4335300926</v>
+        <v>45862.43585648148</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>56.95</v>
+        <v>56.69</v>
       </c>
       <c r="C123" t="n">
         <v>121</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45862.43355324074</v>
+        <v>45862.43587962963</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>56.8</v>
+        <v>56.73</v>
       </c>
       <c r="C124" t="n">
         <v>122</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45862.43357638889</v>
+        <v>45862.43590277778</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -2808,13 +2808,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C125" t="n">
         <v>123</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45862.43359953703</v>
+        <v>45862.43592592593</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>124</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45862.43362268519</v>
+        <v>45862.43594907408</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C127" t="n">
         <v>125</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45862.43364583333</v>
+        <v>45862.43597222222</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>56.74</v>
+        <v>56.88</v>
       </c>
       <c r="C128" t="n">
         <v>126</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45862.43366898148</v>
+        <v>45862.43599537037</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>56.82</v>
+        <v>56.88</v>
       </c>
       <c r="C129" t="n">
         <v>127</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45862.43369212963</v>
+        <v>45862.43601851852</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>128</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45862.43371527778</v>
+        <v>45862.43604166667</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C131" t="n">
         <v>129</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45862.43373842593</v>
+        <v>45862.43606481481</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>130</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45862.43376157407</v>
+        <v>45862.43608796296</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -2960,13 +2960,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C133" t="n">
         <v>131</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45862.43378472222</v>
+        <v>45862.43611111111</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>56.52</v>
+        <v>56.74</v>
       </c>
       <c r="C134" t="n">
         <v>132</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45862.43380787037</v>
+        <v>45862.43613425926</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>56.52</v>
+        <v>56.74</v>
       </c>
       <c r="C135" t="n">
         <v>133</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45862.43383101852</v>
+        <v>45862.43615740741</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -3017,13 +3017,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C136" t="n">
         <v>134</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45862.43385416667</v>
+        <v>45862.43618055555</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -3036,13 +3036,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>56.52</v>
+        <v>56.74</v>
       </c>
       <c r="C137" t="n">
         <v>135</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45862.43387731481</v>
+        <v>45862.43620370371</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C138" t="n">
         <v>136</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45862.43390046297</v>
+        <v>45862.43622685185</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C139" t="n">
         <v>137</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45862.43392361111</v>
+        <v>45862.43625</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C140" t="n">
         <v>138</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45862.43394675926</v>
+        <v>45862.43627314815</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>56.58</v>
+        <v>56.66</v>
       </c>
       <c r="C141" t="n">
         <v>139</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45862.4339699074</v>
+        <v>45862.4362962963</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>56.66</v>
+        <v>56.65</v>
       </c>
       <c r="C142" t="n">
         <v>140</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45862.43399305556</v>
+        <v>45862.43631944444</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C143" t="n">
         <v>141</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45862.4340162037</v>
+        <v>45862.43634259259</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
@@ -3169,13 +3169,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C144" t="n">
         <v>142</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45862.43403935185</v>
+        <v>45862.43636574074</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C145" t="n">
         <v>143</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45862.4340625</v>
+        <v>45862.43638888889</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C146" t="n">
         <v>144</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45862.43408564815</v>
+        <v>45862.43641203704</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C147" t="n">
         <v>145</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45862.4341087963</v>
+        <v>45862.43643518518</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -3245,13 +3245,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C148" t="n">
         <v>146</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45862.43413194444</v>
+        <v>45862.43645833333</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -3264,13 +3264,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C149" t="n">
         <v>147</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45862.43415509259</v>
+        <v>45862.43648148148</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
@@ -3283,13 +3283,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C150" t="n">
         <v>148</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45862.43417824074</v>
+        <v>45862.43650462963</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C151" t="n">
         <v>149</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45862.43420138889</v>
+        <v>45862.43652777778</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>150</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45862.43422453704</v>
+        <v>45862.43655092592</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -3340,13 +3340,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C153" t="n">
         <v>151</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45862.43424768518</v>
+        <v>45862.43657407408</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C154" t="n">
         <v>152</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45862.43427083334</v>
+        <v>45862.43659722222</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C155" t="n">
         <v>153</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>45862.43429398148</v>
+        <v>45862.43662037037</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -3397,13 +3397,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C156" t="n">
         <v>154</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>45862.43431712963</v>
+        <v>45862.43664351852</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -3416,13 +3416,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C157" t="n">
         <v>155</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>45862.43434027778</v>
+        <v>45862.43666666667</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>56.8</v>
+        <v>56.58</v>
       </c>
       <c r="C158" t="n">
         <v>156</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>45862.43436342593</v>
+        <v>45862.43668981481</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>56.8</v>
+        <v>56.58</v>
       </c>
       <c r="C159" t="n">
         <v>157</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>45862.43438657407</v>
+        <v>45862.43671296296</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -3473,13 +3473,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C160" t="n">
         <v>158</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>45862.43440972222</v>
+        <v>45862.43673611111</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C161" t="n">
         <v>159</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>45862.43443287037</v>
+        <v>45862.43675925926</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C162" t="n">
         <v>160</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>45862.43445601852</v>
+        <v>45862.43678240741</v>
       </c>
       <c r="E162" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C163" t="n">
         <v>161</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>45862.43447916667</v>
+        <v>45862.43680555555</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
@@ -3549,13 +3549,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C164" t="n">
         <v>162</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>45862.43450231481</v>
+        <v>45862.43682870371</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
@@ -3568,13 +3568,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>56.88</v>
+        <v>56.6</v>
       </c>
       <c r="C165" t="n">
         <v>163</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>45862.43452546297</v>
+        <v>45862.43685185185</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C166" t="n">
         <v>164</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>45862.43454861111</v>
+        <v>45862.436875</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -3606,13 +3606,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C167" t="n">
         <v>165</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>45862.43457175926</v>
+        <v>45862.43689814815</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -3625,13 +3625,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C168" t="n">
         <v>166</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>45862.4345949074</v>
+        <v>45862.4369212963</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -3644,13 +3644,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>56.52</v>
+        <v>56.68</v>
       </c>
       <c r="C169" t="n">
         <v>167</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>45862.43461805556</v>
+        <v>45862.43694444445</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C170" t="n">
         <v>168</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>45862.4346412037</v>
+        <v>45862.43696759259</v>
       </c>
       <c r="E170" t="n">
         <v>0</v>
@@ -3682,13 +3682,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C171" t="n">
         <v>169</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>45862.43466435185</v>
+        <v>45862.43699074074</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -3701,13 +3701,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C172" t="n">
         <v>170</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>45862.4346875</v>
+        <v>45862.43701388889</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C173" t="n">
         <v>171</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>45862.43471064815</v>
+        <v>45862.43703703704</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>172</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>45862.4347337963</v>
+        <v>45862.43706018518</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C175" t="n">
         <v>173</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>45862.43476851852</v>
+        <v>45862.43708333333</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C176" t="n">
         <v>174</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>45862.43478009259</v>
+        <v>45862.43710648148</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C177" t="n">
         <v>175</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>45862.43480324074</v>
+        <v>45862.43712962963</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>56.73</v>
+        <v>56.66</v>
       </c>
       <c r="C178" t="n">
         <v>176</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>45862.43482638889</v>
+        <v>45862.43715277778</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C179" t="n">
         <v>177</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>45862.43484953704</v>
+        <v>45862.43717592592</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C180" t="n">
         <v>178</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>45862.43487268518</v>
+        <v>45862.43719907408</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C181" t="n">
         <v>179</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>45862.43489583334</v>
+        <v>45862.43722222222</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -3891,13 +3891,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C182" t="n">
         <v>180</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>45862.43491898148</v>
+        <v>45862.43724537037</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C183" t="n">
         <v>181</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>45862.43494212963</v>
+        <v>45862.43726851852</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -3929,13 +3929,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C184" t="n">
         <v>182</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>45862.43497685185</v>
+        <v>45862.43729166667</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>183</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>45862.43498842593</v>
+        <v>45862.43731481482</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -3967,13 +3967,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C186" t="n">
         <v>184</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>45862.43501157407</v>
+        <v>45862.43733796296</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C187" t="n">
         <v>185</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>45862.43503472222</v>
+        <v>45862.43736111111</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -4005,13 +4005,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>56.58</v>
+        <v>56.66</v>
       </c>
       <c r="C188" t="n">
         <v>186</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>45862.43505787037</v>
+        <v>45862.43738425926</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>187</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>45862.43508101852</v>
+        <v>45862.43740740741</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>188</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>45862.43510416667</v>
+        <v>45862.43743055555</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>189</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>45862.43513888889</v>
+        <v>45862.4374537037</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>190</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>45862.43516203704</v>
+        <v>45862.43747685185</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>56.77</v>
+        <v>56.66</v>
       </c>
       <c r="C193" t="n">
         <v>191</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>45862.43517361111</v>
+        <v>45862.4375</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>192</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>45862.43519675926</v>
+        <v>45862.43752314815</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C195" t="n">
         <v>193</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>45862.43521990741</v>
+        <v>45862.4375462963</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C196" t="n">
         <v>194</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>45862.43525462963</v>
+        <v>45862.43756944445</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>56.58</v>
+        <v>56.66</v>
       </c>
       <c r="C197" t="n">
         <v>195</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>45862.43526620371</v>
+        <v>45862.43759259259</v>
       </c>
       <c r="E197" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C198" t="n">
         <v>196</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>45862.43530092593</v>
+        <v>45862.43761574074</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
@@ -4214,13 +4214,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>56.52</v>
+        <v>56.66</v>
       </c>
       <c r="C199" t="n">
         <v>197</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>45862.43532407407</v>
+        <v>45862.43763888889</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -4233,13 +4233,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>56.6</v>
+        <v>56.88</v>
       </c>
       <c r="C200" t="n">
         <v>198</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>45862.43534722222</v>
+        <v>45862.43766203704</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -4252,13 +4252,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C201" t="n">
         <v>199</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>45862.43537037037</v>
+        <v>45862.43768518518</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C202" t="n">
         <v>200</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>45862.43539351852</v>
+        <v>45862.43771990741</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -4290,13 +4290,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C203" t="n">
         <v>201</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>45862.43541666667</v>
+        <v>45862.43773148148</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -4309,13 +4309,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C204" t="n">
         <v>202</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>45862.43543981481</v>
+        <v>45862.43775462963</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -4328,13 +4328,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C205" t="n">
         <v>203</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>45862.43546296296</v>
+        <v>45862.43777777778</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C206" t="n">
         <v>204</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>45862.43548611111</v>
+        <v>45862.43780092592</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>205</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>45862.43550925926</v>
+        <v>45862.43782407408</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C208" t="n">
         <v>206</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>45862.43553240741</v>
+        <v>45862.43784722222</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>207</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>45862.43555555555</v>
+        <v>45862.43787037037</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
@@ -4423,13 +4423,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C210" t="n">
         <v>208</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>45862.43557870371</v>
+        <v>45862.43789351852</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>209</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>45862.43560185185</v>
+        <v>45862.43791666667</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -4461,13 +4461,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C212" t="n">
         <v>210</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>45862.435625</v>
+        <v>45862.43793981482</v>
       </c>
       <c r="E212" t="n">
         <v>0</v>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C213" t="n">
         <v>211</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>45862.43564814814</v>
+        <v>45862.43796296296</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>212</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>45862.4356712963</v>
+        <v>45862.43798611111</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
@@ -4518,13 +4518,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C215" t="n">
         <v>213</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>45862.43569444444</v>
+        <v>45862.43800925926</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
@@ -4537,13 +4537,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C216" t="n">
         <v>214</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>45862.43571759259</v>
+        <v>45862.43803240741</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>56.66</v>
+        <v>56.84</v>
       </c>
       <c r="C217" t="n">
         <v>215</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>45862.43574074074</v>
+        <v>45862.43805555555</v>
       </c>
       <c r="E217" t="n">
         <v>0</v>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C218" t="n">
         <v>216</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>45862.43576388889</v>
+        <v>45862.4380787037</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -4594,13 +4594,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C219" t="n">
         <v>217</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>45862.43578703704</v>
+        <v>45862.43810185185</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C220" t="n">
         <v>218</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>45862.43581018518</v>
+        <v>45862.438125</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>219</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>45862.43583333334</v>
+        <v>45862.43814814815</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
@@ -4651,13 +4651,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C222" t="n">
         <v>220</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>45862.43585648148</v>
+        <v>45862.43818287037</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
@@ -4670,13 +4670,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>56.69</v>
+        <v>56.8</v>
       </c>
       <c r="C223" t="n">
         <v>221</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>45862.43587962963</v>
+        <v>45862.43819444445</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>56.73</v>
+        <v>56.66</v>
       </c>
       <c r="C224" t="n">
         <v>222</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>45862.43590277778</v>
+        <v>45862.43821759259</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
@@ -4708,13 +4708,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C225" t="n">
         <v>223</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>45862.43592592593</v>
+        <v>45862.43824074074</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
@@ -4727,13 +4727,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>56.74</v>
+        <v>56.8</v>
       </c>
       <c r="C226" t="n">
         <v>224</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>45862.43594907408</v>
+        <v>45862.43826388889</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>225</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>45862.43597222222</v>
+        <v>45862.43829861111</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C228" t="n">
         <v>226</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>45862.43599537037</v>
+        <v>45862.43831018519</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
@@ -4784,13 +4784,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C229" t="n">
         <v>227</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>45862.43601851852</v>
+        <v>45862.43833333333</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
@@ -4803,13 +4803,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>56.88</v>
+        <v>56.52</v>
       </c>
       <c r="C230" t="n">
         <v>228</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>45862.43604166667</v>
+        <v>45862.43835648148</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
@@ -4822,13 +4822,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>56.95</v>
+        <v>56.66</v>
       </c>
       <c r="C231" t="n">
         <v>229</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>45862.43606481481</v>
+        <v>45862.43837962963</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>230</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>45862.43608796296</v>
+        <v>45862.43840277778</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
@@ -4860,13 +4860,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C233" t="n">
         <v>231</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>45862.43611111111</v>
+        <v>45862.43842592592</v>
       </c>
       <c r="E233" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>232</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>45862.43613425926</v>
+        <v>45862.43844907408</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
@@ -4898,13 +4898,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>56.74</v>
+        <v>56.88</v>
       </c>
       <c r="C235" t="n">
         <v>233</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>45862.43615740741</v>
+        <v>45862.43847222222</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -4917,13 +4917,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>56.74</v>
+        <v>56.77</v>
       </c>
       <c r="C236" t="n">
         <v>234</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>45862.43618055555</v>
+        <v>45862.43849537037</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C237" t="n">
         <v>235</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>45862.43620370371</v>
+        <v>45862.43851851852</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
@@ -4955,13 +4955,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C238" t="n">
         <v>236</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>45862.43622685185</v>
+        <v>45862.43854166667</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
@@ -4974,13 +4974,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C239" t="n">
         <v>237</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>45862.43625</v>
+        <v>45862.43856481482</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
@@ -4993,13 +4993,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C240" t="n">
         <v>238</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>45862.43627314815</v>
+        <v>45862.43858796296</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
@@ -5012,13 +5012,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C241" t="n">
         <v>239</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>45862.4362962963</v>
+        <v>45862.43861111111</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
@@ -5031,13 +5031,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>56.65</v>
+        <v>56.66</v>
       </c>
       <c r="C242" t="n">
         <v>240</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>45862.43631944444</v>
+        <v>45862.43863425926</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
@@ -5050,13 +5050,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>56.8</v>
+        <v>56.52</v>
       </c>
       <c r="C243" t="n">
         <v>241</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>45862.43634259259</v>
+        <v>45862.43866898148</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
@@ -5069,13 +5069,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>56.8</v>
+        <v>56.52</v>
       </c>
       <c r="C244" t="n">
         <v>242</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>45862.43636574074</v>
+        <v>45862.43868055556</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
@@ -5088,13 +5088,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>56.8</v>
+        <v>56.52</v>
       </c>
       <c r="C245" t="n">
         <v>243</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>45862.43638888889</v>
+        <v>45862.4387037037</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -5107,13 +5107,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>56.88</v>
+        <v>56.52</v>
       </c>
       <c r="C246" t="n">
         <v>244</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45862.43641203704</v>
+        <v>45862.43873842592</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -5126,13 +5126,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>56.88</v>
+        <v>56.66</v>
       </c>
       <c r="C247" t="n">
         <v>245</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45862.43643518518</v>
+        <v>45862.43875</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
@@ -5145,13 +5145,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C248" t="n">
         <v>246</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>45862.43645833333</v>
+        <v>45862.43877314815</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
@@ -5164,13 +5164,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C249" t="n">
         <v>247</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>45862.43648148148</v>
+        <v>45862.43879629629</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C250" t="n">
         <v>248</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>45862.43650462963</v>
+        <v>45862.43881944445</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
@@ -5202,13 +5202,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>56.8</v>
+        <v>56.63</v>
       </c>
       <c r="C251" t="n">
         <v>249</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>45862.43652777778</v>
+        <v>45862.43885416666</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -5221,13 +5221,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>56.8</v>
+        <v>56.46</v>
       </c>
       <c r="C252" t="n">
         <v>250</v>
       </c>
       <c r="D252" s="2" t="n">
-        <v>45862.43655092592</v>
+        <v>45862.43886574074</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -5240,13 +5240,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C253" t="n">
         <v>251</v>
       </c>
       <c r="D253" s="2" t="n">
-        <v>45862.43657407408</v>
+        <v>45862.43888888889</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
@@ -5259,13 +5259,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C254" t="n">
         <v>252</v>
       </c>
       <c r="D254" s="2" t="n">
-        <v>45862.43659722222</v>
+        <v>45862.43891203704</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -5278,13 +5278,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C255" t="n">
         <v>253</v>
       </c>
       <c r="D255" s="2" t="n">
-        <v>45862.43662037037</v>
+        <v>45862.43893518519</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C256" t="n">
         <v>254</v>
       </c>
       <c r="D256" s="2" t="n">
-        <v>45862.43664351852</v>
+        <v>45862.43895833333</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C257" t="n">
         <v>255</v>
       </c>
       <c r="D257" s="2" t="n">
-        <v>45862.43666666667</v>
+        <v>45862.43899305556</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>56.58</v>
+        <v>56.8</v>
       </c>
       <c r="C258" t="n">
         <v>256</v>
       </c>
       <c r="D258" s="2" t="n">
-        <v>45862.43668981481</v>
+        <v>45862.43900462963</v>
       </c>
       <c r="E258" t="n">
         <v>0</v>
@@ -5354,13 +5354,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>56.58</v>
+        <v>56.8</v>
       </c>
       <c r="C259" t="n">
         <v>257</v>
       </c>
       <c r="D259" s="2" t="n">
-        <v>45862.43671296296</v>
+        <v>45862.43903935186</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C260" t="n">
         <v>258</v>
       </c>
       <c r="D260" s="2" t="n">
-        <v>45862.43673611111</v>
+        <v>45862.4390625</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C261" t="n">
         <v>259</v>
       </c>
       <c r="D261" s="2" t="n">
-        <v>45862.43675925926</v>
+        <v>45862.43908564815</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>260</v>
       </c>
       <c r="D262" s="2" t="n">
-        <v>45862.43678240741</v>
+        <v>45862.43910879629</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
@@ -5430,13 +5430,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C263" t="n">
         <v>261</v>
       </c>
       <c r="D263" s="2" t="n">
-        <v>45862.43680555555</v>
+        <v>45862.43913194445</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -5449,13 +5449,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C264" t="n">
         <v>262</v>
       </c>
       <c r="D264" s="2" t="n">
-        <v>45862.43682870371</v>
+        <v>45862.43915509259</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>263</v>
       </c>
       <c r="D265" s="2" t="n">
-        <v>45862.43685185185</v>
+        <v>45862.43916666666</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
@@ -5487,13 +5487,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C266" t="n">
         <v>264</v>
       </c>
       <c r="D266" s="2" t="n">
-        <v>45862.436875</v>
+        <v>45862.43920138889</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -5506,13 +5506,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C267" t="n">
         <v>265</v>
       </c>
       <c r="D267" s="2" t="n">
-        <v>45862.43689814815</v>
+        <v>45862.43922453704</v>
       </c>
       <c r="E267" t="n">
         <v>0</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C268" t="n">
         <v>266</v>
       </c>
       <c r="D268" s="2" t="n">
-        <v>45862.4369212963</v>
+        <v>45862.43924768519</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>56.68</v>
+        <v>56.6</v>
       </c>
       <c r="C269" t="n">
         <v>267</v>
       </c>
       <c r="D269" s="2" t="n">
-        <v>45862.43694444445</v>
+        <v>45862.43927083333</v>
       </c>
       <c r="E269" t="n">
         <v>0</v>
@@ -5563,13 +5563,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C270" t="n">
         <v>268</v>
       </c>
       <c r="D270" s="2" t="n">
-        <v>45862.43696759259</v>
+        <v>45862.43929398148</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C271" t="n">
         <v>269</v>
       </c>
       <c r="D271" s="2" t="n">
-        <v>45862.43699074074</v>
+        <v>45862.43931712963</v>
       </c>
       <c r="E271" t="n">
         <v>0</v>
@@ -5601,13 +5601,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C272" t="n">
         <v>270</v>
       </c>
       <c r="D272" s="2" t="n">
-        <v>45862.43701388889</v>
+        <v>45862.43934027778</v>
       </c>
       <c r="E272" t="n">
         <v>0</v>
@@ -5620,13 +5620,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>56.74</v>
+        <v>56.58</v>
       </c>
       <c r="C273" t="n">
         <v>271</v>
       </c>
       <c r="D273" s="2" t="n">
-        <v>45862.43703703704</v>
+        <v>45862.43936342592</v>
       </c>
       <c r="E273" t="n">
         <v>0</v>
@@ -5639,13 +5639,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C274" t="n">
         <v>272</v>
       </c>
       <c r="D274" s="2" t="n">
-        <v>45862.43706018518</v>
+        <v>45862.43938657407</v>
       </c>
       <c r="E274" t="n">
         <v>0</v>
@@ -5658,13 +5658,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C275" t="n">
         <v>273</v>
       </c>
       <c r="D275" s="2" t="n">
-        <v>45862.43708333333</v>
+        <v>45862.43940972222</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
@@ -5677,13 +5677,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C276" t="n">
         <v>274</v>
       </c>
       <c r="D276" s="2" t="n">
-        <v>45862.43710648148</v>
+        <v>45862.43943287037</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>275</v>
       </c>
       <c r="D277" s="2" t="n">
-        <v>45862.43712962963</v>
+        <v>45862.43945601852</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>276</v>
       </c>
       <c r="D278" s="2" t="n">
-        <v>45862.43715277778</v>
+        <v>45862.43947916666</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
@@ -5740,7 +5740,7 @@
         <v>277</v>
       </c>
       <c r="D279" s="2" t="n">
-        <v>45862.43717592592</v>
+        <v>45862.43950231482</v>
       </c>
       <c r="E279" t="n">
         <v>0</v>
@@ -5753,13 +5753,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C280" t="n">
         <v>278</v>
       </c>
       <c r="D280" s="2" t="n">
-        <v>45862.43719907408</v>
+        <v>45862.43952546296</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
@@ -5772,13 +5772,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C281" t="n">
         <v>279</v>
       </c>
       <c r="D281" s="2" t="n">
-        <v>45862.43722222222</v>
+        <v>45862.43954861111</v>
       </c>
       <c r="E281" t="n">
         <v>0</v>
@@ -5791,13 +5791,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C282" t="n">
         <v>280</v>
       </c>
       <c r="D282" s="2" t="n">
-        <v>45862.43724537037</v>
+        <v>45862.43957175926</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
@@ -5810,13 +5810,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C283" t="n">
         <v>281</v>
       </c>
       <c r="D283" s="2" t="n">
-        <v>45862.43726851852</v>
+        <v>45862.43959490741</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
@@ -5829,13 +5829,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C284" t="n">
         <v>282</v>
       </c>
       <c r="D284" s="2" t="n">
-        <v>45862.43729166667</v>
+        <v>45862.43961805556</v>
       </c>
       <c r="E284" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C285" t="n">
         <v>283</v>
       </c>
       <c r="D285" s="2" t="n">
-        <v>45862.43731481482</v>
+        <v>45862.4396412037</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>284</v>
       </c>
       <c r="D286" s="2" t="n">
-        <v>45862.43733796296</v>
+        <v>45862.43966435185</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
@@ -5892,7 +5892,7 @@
         <v>285</v>
       </c>
       <c r="D287" s="2" t="n">
-        <v>45862.43736111111</v>
+        <v>45862.4396875</v>
       </c>
       <c r="E287" t="n">
         <v>0</v>
@@ -5905,13 +5905,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C288" t="n">
         <v>286</v>
       </c>
       <c r="D288" s="2" t="n">
-        <v>45862.43738425926</v>
+        <v>45862.43971064815</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>287</v>
       </c>
       <c r="D289" s="2" t="n">
-        <v>45862.43740740741</v>
+        <v>45862.43973379629</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>288</v>
       </c>
       <c r="D290" s="2" t="n">
-        <v>45862.43743055555</v>
+        <v>45862.43975694444</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>289</v>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45862.4374537037</v>
+        <v>45862.43978009259</v>
       </c>
       <c r="E291" t="n">
         <v>0</v>
@@ -5981,13 +5981,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C292" t="n">
         <v>290</v>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45862.43747685185</v>
+        <v>45862.43980324074</v>
       </c>
       <c r="E292" t="n">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>291</v>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45862.4375</v>
+        <v>45862.43982638889</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
@@ -6019,13 +6019,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C294" t="n">
         <v>292</v>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45862.43752314815</v>
+        <v>45862.43984953704</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>293</v>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45862.4375462963</v>
+        <v>45862.43987268519</v>
       </c>
       <c r="E295" t="n">
         <v>0</v>
@@ -6057,13 +6057,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>56.66</v>
+        <v>56.71</v>
       </c>
       <c r="C296" t="n">
         <v>294</v>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45862.43756944445</v>
+        <v>45862.43989583333</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
@@ -6076,13 +6076,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C297" t="n">
         <v>295</v>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45862.43759259259</v>
+        <v>45862.43991898148</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
@@ -6101,7 +6101,7 @@
         <v>296</v>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45862.43761574074</v>
+        <v>45862.43994212963</v>
       </c>
       <c r="E298" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>297</v>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45862.43763888889</v>
+        <v>45862.43996527778</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -6133,13 +6133,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C300" t="n">
         <v>298</v>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45862.43766203704</v>
+        <v>45862.43998842593</v>
       </c>
       <c r="E300" t="n">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>299</v>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45862.43768518518</v>
+        <v>45862.44001157407</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -6171,13 +6171,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C302" t="n">
         <v>300</v>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45862.43771990741</v>
+        <v>45862.44003472223</v>
       </c>
       <c r="E302" t="n">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C303" t="n">
         <v>301</v>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45862.43773148148</v>
+        <v>45862.44005787037</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>302</v>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45862.43775462963</v>
+        <v>45862.44008101852</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C305" t="n">
         <v>303</v>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45862.43777777778</v>
+        <v>45862.44010416666</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C306" t="n">
         <v>304</v>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45862.43780092592</v>
+        <v>45862.44012731482</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -6272,7 +6272,7 @@
         <v>305</v>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45862.43782407408</v>
+        <v>45862.44015046296</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C308" t="n">
         <v>306</v>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45862.43784722222</v>
+        <v>45862.44017361111</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -6304,13 +6304,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C309" t="n">
         <v>307</v>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45862.43787037037</v>
+        <v>45862.44019675926</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
@@ -6323,13 +6323,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C310" t="n">
         <v>308</v>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45862.43789351852</v>
+        <v>45862.44021990741</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -6342,13 +6342,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C311" t="n">
         <v>309</v>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45862.43791666667</v>
+        <v>45862.44024305556</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -6361,13 +6361,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>56.74</v>
+        <v>56.52</v>
       </c>
       <c r="C312" t="n">
         <v>310</v>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45862.43793981482</v>
+        <v>45862.4402662037</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>56.66</v>
+        <v>56.52</v>
       </c>
       <c r="C313" t="n">
         <v>311</v>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45862.43796296296</v>
+        <v>45862.44028935185</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>56.8</v>
+        <v>56.82</v>
       </c>
       <c r="C314" t="n">
         <v>312</v>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45862.43798611111</v>
+        <v>45862.4403125</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -6418,13 +6418,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>56.74</v>
+        <v>56.6</v>
       </c>
       <c r="C315" t="n">
         <v>313</v>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45862.43800925926</v>
+        <v>45862.44033564815</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C316" t="n">
         <v>314</v>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45862.43803240741</v>
+        <v>45862.4403587963</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -6456,13 +6456,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>56.84</v>
+        <v>56.74</v>
       </c>
       <c r="C317" t="n">
         <v>315</v>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45862.43805555555</v>
+        <v>45862.44038194444</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -6475,13 +6475,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C318" t="n">
         <v>316</v>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45862.4380787037</v>
+        <v>45862.4404050926</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -6494,13 +6494,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>56.8</v>
+        <v>56.52</v>
       </c>
       <c r="C319" t="n">
         <v>317</v>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45862.43810185185</v>
+        <v>45862.44042824074</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>56.95</v>
+        <v>56.74</v>
       </c>
       <c r="C320" t="n">
         <v>318</v>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45862.438125</v>
+        <v>45862.44045138889</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C321" t="n">
         <v>319</v>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45862.43814814815</v>
+        <v>45862.44047453703</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -6551,13 +6551,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>56.8</v>
+        <v>56.68</v>
       </c>
       <c r="C322" t="n">
         <v>320</v>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45862.43818287037</v>
+        <v>45862.44049768519</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C323" t="n">
         <v>321</v>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45862.43819444445</v>
+        <v>45862.44052083333</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
@@ -6595,7 +6595,7 @@
         <v>322</v>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45862.43821759259</v>
+        <v>45862.44054398148</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>56.8</v>
+        <v>56.46</v>
       </c>
       <c r="C325" t="n">
         <v>323</v>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45862.43824074074</v>
+        <v>45862.44056712963</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>56.8</v>
+        <v>56.58</v>
       </c>
       <c r="C326" t="n">
         <v>324</v>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45862.43826388889</v>
+        <v>45862.44059027778</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
@@ -6646,13 +6646,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>56.66</v>
+        <v>56.52</v>
       </c>
       <c r="C327" t="n">
         <v>325</v>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45862.43829861111</v>
+        <v>45862.44061342593</v>
       </c>
       <c r="E327" t="n">
         <v>0</v>
@@ -6665,13 +6665,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>56.66</v>
+        <v>56.58</v>
       </c>
       <c r="C328" t="n">
         <v>326</v>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45862.43831018519</v>
+        <v>45862.44063657407</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -6684,13 +6684,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>56.74</v>
+        <v>56.73</v>
       </c>
       <c r="C329" t="n">
         <v>327</v>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45862.43833333333</v>
+        <v>45862.44065972222</v>
       </c>
       <c r="E329" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>56.52</v>
+        <v>56.74</v>
       </c>
       <c r="C330" t="n">
         <v>328</v>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45862.43835648148</v>
+        <v>45862.44068287037</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -6722,13 +6722,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C331" t="n">
         <v>329</v>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45862.43837962963</v>
+        <v>45862.44070601852</v>
       </c>
       <c r="E331" t="n">
         <v>0</v>
@@ -6747,7 +6747,7 @@
         <v>330</v>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45862.43840277778</v>
+        <v>45862.44072916666</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
@@ -6760,13 +6760,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C333" t="n">
         <v>331</v>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45862.43842592592</v>
+        <v>45862.44075231482</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>332</v>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45862.43844907408</v>
+        <v>45862.44077546296</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -6798,13 +6798,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>56.88</v>
+        <v>56.8</v>
       </c>
       <c r="C335" t="n">
         <v>333</v>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45862.43847222222</v>
+        <v>45862.44079861111</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -6817,13 +6817,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>56.77</v>
+        <v>56.8</v>
       </c>
       <c r="C336" t="n">
         <v>334</v>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45862.43849537037</v>
+        <v>45862.44082175926</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -6842,7 +6842,7 @@
         <v>335</v>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45862.43851851852</v>
+        <v>45862.44084490741</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>336</v>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45862.43854166667</v>
+        <v>45862.44086805556</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
@@ -6880,7 +6880,7 @@
         <v>337</v>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45862.43856481482</v>
+        <v>45862.4408912037</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
@@ -6893,13 +6893,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>56.66</v>
+        <v>56.68</v>
       </c>
       <c r="C340" t="n">
         <v>338</v>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45862.43858796296</v>
+        <v>45862.44091435185</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>56.74</v>
+        <v>56.66</v>
       </c>
       <c r="C341" t="n">
         <v>339</v>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45862.43861111111</v>
+        <v>45862.4409375</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -6937,7 +6937,7 @@
         <v>340</v>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45862.43863425926</v>
+        <v>45862.44096064815</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
@@ -6950,13 +6950,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>56.52</v>
+        <v>56.66</v>
       </c>
       <c r="C343" t="n">
         <v>341</v>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45862.43866898148</v>
+        <v>45862.4409837963</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -6969,13 +6969,13 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>56.52</v>
+        <v>56.66</v>
       </c>
       <c r="C344" t="n">
         <v>342</v>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45862.43868055556</v>
+        <v>45862.44100694444</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
@@ -6988,13 +6988,13 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>56.52</v>
+        <v>56.66</v>
       </c>
       <c r="C345" t="n">
         <v>343</v>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45862.4387037037</v>
+        <v>45862.4410300926</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
@@ -7007,13 +7007,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>56.52</v>
+        <v>56.68</v>
       </c>
       <c r="C346" t="n">
         <v>344</v>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45862.43873842592</v>
+        <v>45862.44105324074</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>56.66</v>
+        <v>56.68</v>
       </c>
       <c r="C347" t="n">
         <v>345</v>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45862.43875</v>
+        <v>45862.44107638889</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>346</v>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45862.43877314815</v>
+        <v>45862.44109953703</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>347</v>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45862.43879629629</v>
+        <v>45862.44112268519</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -7083,13 +7083,13 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C350" t="n">
         <v>348</v>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45862.43881944445</v>
+        <v>45862.44114583333</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>56.63</v>
+        <v>56.6</v>
       </c>
       <c r="C351" t="n">
         <v>349</v>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45862.43885416666</v>
+        <v>45862.44116898148</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -7121,13 +7121,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>56.46</v>
+        <v>56.6</v>
       </c>
       <c r="C352" t="n">
         <v>350</v>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45862.43886574074</v>
+        <v>45862.44119212963</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
@@ -7140,13 +7140,13 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C353" t="n">
         <v>351</v>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45862.43888888889</v>
+        <v>45862.44121527778</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
@@ -7159,13 +7159,13 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>56.8</v>
+        <v>56.52</v>
       </c>
       <c r="C354" t="n">
         <v>352</v>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45862.43891203704</v>
+        <v>45862.44123842593</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
@@ -7178,13 +7178,13 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C355" t="n">
         <v>353</v>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45862.43893518519</v>
+        <v>45862.44126157407</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="C356" t="n">
         <v>354</v>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45862.43895833333</v>
+        <v>45862.44128472222</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -7216,16 +7216,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C357" t="n">
         <v>355</v>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45862.43899305556</v>
+        <v>45862.44130787037</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -7235,16 +7235,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C358" t="n">
         <v>356</v>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45862.43900462963</v>
+        <v>45862.44133101852</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -7254,16 +7254,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>56.8</v>
+        <v>56.69</v>
       </c>
       <c r="C359" t="n">
         <v>357</v>
       </c>
       <c r="D359" s="2" t="n">
-        <v>45862.43903935186</v>
+        <v>45862.44135416667</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -7273,16 +7273,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>56.8</v>
+        <v>56.66</v>
       </c>
       <c r="C360" t="n">
         <v>358</v>
       </c>
       <c r="D360" s="2" t="n">
-        <v>45862.4390625</v>
+        <v>45862.44137731481</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -7292,16 +7292,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>56.8</v>
+        <v>56.74</v>
       </c>
       <c r="C361" t="n">
         <v>359</v>
       </c>
       <c r="D361" s="2" t="n">
-        <v>45862.43908564815</v>
+        <v>45862.44140046297</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -7311,16 +7311,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C362" t="n">
         <v>360</v>
       </c>
       <c r="D362" s="2" t="n">
-        <v>45862.43910879629</v>
+        <v>45862.44142361111</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -7336,10 +7336,10 @@
         <v>361</v>
       </c>
       <c r="D363" s="2" t="n">
-        <v>45862.43913194445</v>
+        <v>45862.44144675926</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -7349,16 +7349,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>56.66</v>
+        <v>56.74</v>
       </c>
       <c r="C364" t="n">
         <v>362</v>
       </c>
       <c r="D364" s="2" t="n">
-        <v>45862.43915509259</v>
+        <v>45862.4414699074</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -7368,16 +7368,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C365" t="n">
         <v>363</v>
       </c>
       <c r="D365" s="2" t="n">
-        <v>45862.43916666666</v>
+        <v>45862.44149305556</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>56.6</v>
+        <v>56.66</v>
       </c>
       <c r="C366" t="n">
         <v>364</v>
       </c>
       <c r="D366" s="2" t="n">
-        <v>45862.43920138889</v>
+        <v>45862.4415162037</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -7406,16 +7406,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>56.88</v>
+        <v>56.74</v>
       </c>
       <c r="C367" t="n">
         <v>365</v>
       </c>
       <c r="D367" s="2" t="n">
-        <v>45862.43922453704</v>
+        <v>45862.44153935185</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7425,16 +7425,16 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>56.6</v>
+        <v>56.74</v>
       </c>
       <c r="C368" t="n">
         <v>366</v>
       </c>
       <c r="D368" s="2" t="n">
-        <v>45862.43924768519</v>
+        <v>45862.4415625</v>
       </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -7450,10 +7450,10 @@
         <v>367</v>
       </c>
       <c r="D369" s="2" t="n">
-        <v>45862.43927083333</v>
+        <v>45862.44158564815</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -7463,16 +7463,16 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>56.66</v>
+        <v>56.6</v>
       </c>
       <c r="C370" t="n">
         <v>368</v>
       </c>
       <c r="D370" s="2" t="n">
-        <v>45862.43929398148</v>
+        <v>45862.4416087963</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -7482,16 +7482,16 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C371" t="n">
         <v>369</v>
       </c>
       <c r="D371" s="2" t="n">
-        <v>45862.43931712963</v>
+        <v>45862.44163194444</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -7501,16 +7501,16 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C372" t="n">
         <v>370</v>
       </c>
       <c r="D372" s="2" t="n">
-        <v>45862.43934027778</v>
+        <v>45862.4416550926</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -7520,16 +7520,16 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>56.58</v>
+        <v>56.8</v>
       </c>
       <c r="C373" t="n">
         <v>371</v>
       </c>
       <c r="D373" s="2" t="n">
-        <v>45862.43936342592</v>
+        <v>45862.44167824074</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -7539,16 +7539,16 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>56.6</v>
+        <v>57.02</v>
       </c>
       <c r="C374" t="n">
         <v>372</v>
       </c>
       <c r="D374" s="2" t="n">
-        <v>45862.43938657407</v>
+        <v>45862.44170138889</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -7558,16 +7558,16 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>56.6</v>
+        <v>57.09</v>
       </c>
       <c r="C375" t="n">
         <v>373</v>
       </c>
       <c r="D375" s="2" t="n">
-        <v>45862.43940972222</v>
+        <v>45862.44172453704</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -7577,13 +7577,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>56.6</v>
+        <v>56.88</v>
       </c>
       <c r="C376" t="n">
         <v>374</v>
       </c>
       <c r="D376" s="2" t="n">
-        <v>45862.43943287037</v>
+        <v>45862.44174768519</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -7596,16 +7596,16 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C377" t="n">
         <v>375</v>
       </c>
       <c r="D377" s="2" t="n">
-        <v>45862.43945601852</v>
+        <v>45862.44177083333</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -7615,16 +7615,16 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C378" t="n">
         <v>376</v>
       </c>
       <c r="D378" s="2" t="n">
-        <v>45862.43947916666</v>
+        <v>45862.44179398148</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -7634,16 +7634,16 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C379" t="n">
         <v>377</v>
       </c>
       <c r="D379" s="2" t="n">
-        <v>45862.43950231482</v>
+        <v>45862.44181712963</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -7653,16 +7653,16 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C380" t="n">
         <v>378</v>
       </c>
       <c r="D380" s="2" t="n">
-        <v>45862.43952546296</v>
+        <v>45862.44184027778</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -7672,16 +7672,16 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C381" t="n">
         <v>379</v>
       </c>
       <c r="D381" s="2" t="n">
-        <v>45862.43954861111</v>
+        <v>45862.44186342593</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -7691,16 +7691,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>56.66</v>
+        <v>57.15</v>
       </c>
       <c r="C382" t="n">
         <v>380</v>
       </c>
       <c r="D382" s="2" t="n">
-        <v>45862.43957175926</v>
+        <v>45862.44188657407</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C383" t="n">
         <v>381</v>
       </c>
       <c r="D383" s="2" t="n">
-        <v>45862.43959490741</v>
+        <v>45862.44190972222</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -7729,13 +7729,13 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C384" t="n">
         <v>382</v>
       </c>
       <c r="D384" s="2" t="n">
-        <v>45862.43961805556</v>
+        <v>45862.44193287037</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>56.6</v>
+        <v>56.95</v>
       </c>
       <c r="C385" t="n">
         <v>383</v>
       </c>
       <c r="D385" s="2" t="n">
-        <v>45862.4396412037</v>
+        <v>45862.44195601852</v>
       </c>
       <c r="E385" t="n">
         <v>0</v>
@@ -7767,13 +7767,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C386" t="n">
         <v>384</v>
       </c>
       <c r="D386" s="2" t="n">
-        <v>45862.43966435185</v>
+        <v>45862.44197916667</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
@@ -7786,13 +7786,13 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C387" t="n">
         <v>385</v>
       </c>
       <c r="D387" s="2" t="n">
-        <v>45862.4396875</v>
+        <v>45862.44200231481</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
@@ -7805,16 +7805,16 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C388" t="n">
         <v>386</v>
       </c>
       <c r="D388" s="2" t="n">
-        <v>45862.43971064815</v>
+        <v>45862.44202546297</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -7824,16 +7824,16 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C389" t="n">
         <v>387</v>
       </c>
       <c r="D389" s="2" t="n">
-        <v>45862.43973379629</v>
+        <v>45862.44204861111</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -7843,16 +7843,16 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C390" t="n">
         <v>388</v>
       </c>
       <c r="D390" s="2" t="n">
-        <v>45862.43975694444</v>
+        <v>45862.44207175926</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -7862,16 +7862,16 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C391" t="n">
         <v>389</v>
       </c>
       <c r="D391" s="2" t="n">
-        <v>45862.43978009259</v>
+        <v>45862.4420949074</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -7881,16 +7881,16 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>56.6</v>
+        <v>57.09</v>
       </c>
       <c r="C392" t="n">
         <v>390</v>
       </c>
       <c r="D392" s="2" t="n">
-        <v>45862.43980324074</v>
+        <v>45862.44211805556</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -7900,16 +7900,16 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C393" t="n">
         <v>391</v>
       </c>
       <c r="D393" s="2" t="n">
-        <v>45862.43982638889</v>
+        <v>45862.4421412037</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -7919,16 +7919,16 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C394" t="n">
         <v>392</v>
       </c>
       <c r="D394" s="2" t="n">
-        <v>45862.43984953704</v>
+        <v>45862.44216435185</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -7938,16 +7938,16 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C395" t="n">
         <v>393</v>
       </c>
       <c r="D395" s="2" t="n">
-        <v>45862.43987268519</v>
+        <v>45862.4421875</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>56.71</v>
+        <v>57.01</v>
       </c>
       <c r="C396" t="n">
         <v>394</v>
       </c>
       <c r="D396" s="2" t="n">
-        <v>45862.43989583333</v>
+        <v>45862.44221064815</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -7976,16 +7976,16 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C397" t="n">
         <v>395</v>
       </c>
       <c r="D397" s="2" t="n">
-        <v>45862.43991898148</v>
+        <v>45862.4422337963</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -7995,16 +7995,16 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C398" t="n">
         <v>396</v>
       </c>
       <c r="D398" s="2" t="n">
-        <v>45862.43994212963</v>
+        <v>45862.44225694444</v>
       </c>
       <c r="E398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -8014,16 +8014,16 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>56.66</v>
+        <v>57.15</v>
       </c>
       <c r="C399" t="n">
         <v>397</v>
       </c>
       <c r="D399" s="2" t="n">
-        <v>45862.43996527778</v>
+        <v>45862.44228009259</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -8033,16 +8033,16 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C400" t="n">
         <v>398</v>
       </c>
       <c r="D400" s="2" t="n">
-        <v>45862.43998842593</v>
+        <v>45862.44230324074</v>
       </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8052,13 +8052,13 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>56.6</v>
+        <v>56.88</v>
       </c>
       <c r="C401" t="n">
         <v>399</v>
       </c>
       <c r="D401" s="2" t="n">
-        <v>45862.44001157407</v>
+        <v>45862.44232638889</v>
       </c>
       <c r="E401" t="n">
         <v>0</v>
@@ -8071,13 +8071,13 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>56.6</v>
+        <v>56.88</v>
       </c>
       <c r="C402" t="n">
         <v>400</v>
       </c>
       <c r="D402" s="2" t="n">
-        <v>45862.44003472223</v>
+        <v>45862.44234953704</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
@@ -8090,16 +8090,16 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C403" t="n">
         <v>401</v>
       </c>
       <c r="D403" s="2" t="n">
-        <v>45862.44005787037</v>
+        <v>45862.44237268518</v>
       </c>
       <c r="E403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -8109,13 +8109,13 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C404" t="n">
         <v>402</v>
       </c>
       <c r="D404" s="2" t="n">
-        <v>45862.44008101852</v>
+        <v>45862.44239583334</v>
       </c>
       <c r="E404" t="n">
         <v>0</v>
@@ -8128,16 +8128,16 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C405" t="n">
         <v>403</v>
       </c>
       <c r="D405" s="2" t="n">
-        <v>45862.44010416666</v>
+        <v>45862.44241898148</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8147,16 +8147,16 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>56.66</v>
+        <v>57.09</v>
       </c>
       <c r="C406" t="n">
         <v>404</v>
       </c>
       <c r="D406" s="2" t="n">
-        <v>45862.44012731482</v>
+        <v>45862.44244212963</v>
       </c>
       <c r="E406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -8166,16 +8166,16 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C407" t="n">
         <v>405</v>
       </c>
       <c r="D407" s="2" t="n">
-        <v>45862.44015046296</v>
+        <v>45862.44246527777</v>
       </c>
       <c r="E407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -8185,16 +8185,16 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>56.6</v>
+        <v>57.01</v>
       </c>
       <c r="C408" t="n">
         <v>406</v>
       </c>
       <c r="D408" s="2" t="n">
-        <v>45862.44017361111</v>
+        <v>45862.44248842593</v>
       </c>
       <c r="E408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>56.6</v>
+        <v>57.15</v>
       </c>
       <c r="C409" t="n">
         <v>407</v>
       </c>
       <c r="D409" s="2" t="n">
-        <v>45862.44019675926</v>
+        <v>45862.44251157407</v>
       </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -8223,16 +8223,16 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>56.6</v>
+        <v>57.15</v>
       </c>
       <c r="C410" t="n">
         <v>408</v>
       </c>
       <c r="D410" s="2" t="n">
-        <v>45862.44021990741</v>
+        <v>45862.44253472222</v>
       </c>
       <c r="E410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8242,16 +8242,16 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C411" t="n">
         <v>409</v>
       </c>
       <c r="D411" s="2" t="n">
-        <v>45862.44024305556</v>
+        <v>45862.44255787037</v>
       </c>
       <c r="E411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -8261,16 +8261,16 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>56.52</v>
+        <v>57.15</v>
       </c>
       <c r="C412" t="n">
         <v>410</v>
       </c>
       <c r="D412" s="2" t="n">
-        <v>45862.4402662037</v>
+        <v>45862.44258101852</v>
       </c>
       <c r="E412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -8280,16 +8280,16 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>56.52</v>
+        <v>57.09</v>
       </c>
       <c r="C413" t="n">
         <v>411</v>
       </c>
       <c r="D413" s="2" t="n">
-        <v>45862.44028935185</v>
+        <v>45862.44260416667</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -8299,13 +8299,13 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>56.82</v>
+        <v>56.95</v>
       </c>
       <c r="C414" t="n">
         <v>412</v>
       </c>
       <c r="D414" s="2" t="n">
-        <v>45862.4403125</v>
+        <v>45862.44262731481</v>
       </c>
       <c r="E414" t="n">
         <v>0</v>
@@ -8318,13 +8318,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>56.6</v>
+        <v>56.95</v>
       </c>
       <c r="C415" t="n">
         <v>413</v>
       </c>
       <c r="D415" s="2" t="n">
-        <v>45862.44033564815</v>
+        <v>45862.44265046297</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -8337,13 +8337,13 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>56.6</v>
+        <v>56.95</v>
       </c>
       <c r="C416" t="n">
         <v>414</v>
       </c>
       <c r="D416" s="2" t="n">
-        <v>45862.4403587963</v>
+        <v>45862.44267361111</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -8356,13 +8356,13 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C417" t="n">
         <v>415</v>
       </c>
       <c r="D417" s="2" t="n">
-        <v>45862.44038194444</v>
+        <v>45862.44269675926</v>
       </c>
       <c r="E417" t="n">
         <v>0</v>
@@ -8375,16 +8375,16 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C418" t="n">
         <v>416</v>
       </c>
       <c r="D418" s="2" t="n">
-        <v>45862.4404050926</v>
+        <v>45862.44271990741</v>
       </c>
       <c r="E418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -8394,16 +8394,16 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>56.52</v>
+        <v>57.09</v>
       </c>
       <c r="C419" t="n">
         <v>417</v>
       </c>
       <c r="D419" s="2" t="n">
-        <v>45862.44042824074</v>
+        <v>45862.44274305556</v>
       </c>
       <c r="E419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -8413,16 +8413,16 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C420" t="n">
         <v>418</v>
       </c>
       <c r="D420" s="2" t="n">
-        <v>45862.44045138889</v>
+        <v>45862.44276620371</v>
       </c>
       <c r="E420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -8432,16 +8432,16 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>56.74</v>
+        <v>57.09</v>
       </c>
       <c r="C421" t="n">
         <v>419</v>
       </c>
       <c r="D421" s="2" t="n">
-        <v>45862.44047453703</v>
+        <v>45862.44278935185</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -8451,16 +8451,16 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>56.68</v>
+        <v>57.09</v>
       </c>
       <c r="C422" t="n">
         <v>420</v>
       </c>
       <c r="D422" s="2" t="n">
-        <v>45862.44049768519</v>
+        <v>45862.4428125</v>
       </c>
       <c r="E422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -8470,13 +8470,13 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C423" t="n">
         <v>421</v>
       </c>
       <c r="D423" s="2" t="n">
-        <v>45862.44052083333</v>
+        <v>45862.44283564815</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C424" t="n">
         <v>422</v>
       </c>
       <c r="D424" s="2" t="n">
-        <v>45862.44054398148</v>
+        <v>45862.44287037037</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -8508,13 +8508,13 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>56.46</v>
+        <v>56.88</v>
       </c>
       <c r="C425" t="n">
         <v>423</v>
       </c>
       <c r="D425" s="2" t="n">
-        <v>45862.44056712963</v>
+        <v>45862.44288194444</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -8527,13 +8527,13 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>56.58</v>
+        <v>56.88</v>
       </c>
       <c r="C426" t="n">
         <v>424</v>
       </c>
       <c r="D426" s="2" t="n">
-        <v>45862.44059027778</v>
+        <v>45862.44290509259</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>56.52</v>
+        <v>56.88</v>
       </c>
       <c r="C427" t="n">
         <v>425</v>
       </c>
       <c r="D427" s="2" t="n">
-        <v>45862.44061342593</v>
+        <v>45862.44292824074</v>
       </c>
       <c r="E427" t="n">
         <v>0</v>
@@ -8565,13 +8565,13 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>56.58</v>
+        <v>56.88</v>
       </c>
       <c r="C428" t="n">
         <v>426</v>
       </c>
       <c r="D428" s="2" t="n">
-        <v>45862.44063657407</v>
+        <v>45862.44295138889</v>
       </c>
       <c r="E428" t="n">
         <v>0</v>
@@ -8584,16 +8584,16 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>56.73</v>
+        <v>57.01</v>
       </c>
       <c r="C429" t="n">
         <v>427</v>
       </c>
       <c r="D429" s="2" t="n">
-        <v>45862.44065972222</v>
+        <v>45862.44297453704</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -8603,16 +8603,16 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>56.74</v>
+        <v>57.15</v>
       </c>
       <c r="C430" t="n">
         <v>428</v>
       </c>
       <c r="D430" s="2" t="n">
-        <v>45862.44068287037</v>
+        <v>45862.44299768518</v>
       </c>
       <c r="E430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -8622,16 +8622,16 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>56.74</v>
+        <v>57.15</v>
       </c>
       <c r="C431" t="n">
         <v>429</v>
       </c>
       <c r="D431" s="2" t="n">
-        <v>45862.44070601852</v>
+        <v>45862.44302083334</v>
       </c>
       <c r="E431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -8641,16 +8641,16 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>56.74</v>
+        <v>57.15</v>
       </c>
       <c r="C432" t="n">
         <v>430</v>
       </c>
       <c r="D432" s="2" t="n">
-        <v>45862.44072916666</v>
+        <v>45862.44304398148</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -8660,16 +8660,16 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>56.8</v>
+        <v>57.01</v>
       </c>
       <c r="C433" t="n">
         <v>431</v>
       </c>
       <c r="D433" s="2" t="n">
-        <v>45862.44075231482</v>
+        <v>45862.44306712963</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -8679,13 +8679,13 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C434" t="n">
         <v>432</v>
       </c>
       <c r="D434" s="2" t="n">
-        <v>45862.44077546296</v>
+        <v>45862.44310185185</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>56.8</v>
+        <v>56.95</v>
       </c>
       <c r="C435" t="n">
         <v>433</v>
       </c>
       <c r="D435" s="2" t="n">
-        <v>45862.44079861111</v>
+        <v>45862.44311342593</v>
       </c>
       <c r="E435" t="n">
         <v>0</v>
@@ -8717,16 +8717,16 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>56.8</v>
+        <v>57.01</v>
       </c>
       <c r="C436" t="n">
         <v>434</v>
       </c>
       <c r="D436" s="2" t="n">
-        <v>45862.44082175926</v>
+        <v>45862.44313657407</v>
       </c>
       <c r="E436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -8736,16 +8736,16 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C437" t="n">
         <v>435</v>
       </c>
       <c r="D437" s="2" t="n">
-        <v>45862.44084490741</v>
+        <v>45862.44315972222</v>
       </c>
       <c r="E437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -8755,16 +8755,16 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C438" t="n">
         <v>436</v>
       </c>
       <c r="D438" s="2" t="n">
-        <v>45862.44086805556</v>
+        <v>45862.44318287037</v>
       </c>
       <c r="E438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -8774,16 +8774,16 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>56.66</v>
+        <v>57.01</v>
       </c>
       <c r="C439" t="n">
         <v>437</v>
       </c>
       <c r="D439" s="2" t="n">
-        <v>45862.4408912037</v>
+        <v>45862.44321759259</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
@@ -8793,13 +8793,13 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>56.68</v>
+        <v>56.88</v>
       </c>
       <c r="C440" t="n">
         <v>438</v>
       </c>
       <c r="D440" s="2" t="n">
-        <v>45862.44091435185</v>
+        <v>45862.44322916667</v>
       </c>
       <c r="E440" t="n">
         <v>0</v>
@@ -8812,13 +8812,13 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C441" t="n">
         <v>439</v>
       </c>
       <c r="D441" s="2" t="n">
-        <v>45862.4409375</v>
+        <v>45862.44325231481</v>
       </c>
       <c r="E441" t="n">
         <v>0</v>
@@ -8831,13 +8831,13 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C442" t="n">
         <v>440</v>
       </c>
       <c r="D442" s="2" t="n">
-        <v>45862.44096064815</v>
+        <v>45862.44327546296</v>
       </c>
       <c r="E442" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>56.66</v>
+        <v>56.87</v>
       </c>
       <c r="C443" t="n">
         <v>441</v>
       </c>
       <c r="D443" s="2" t="n">
-        <v>45862.4409837963</v>
+        <v>45862.44329861111</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
@@ -8869,16 +8869,16 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>56.66</v>
+        <v>57.15</v>
       </c>
       <c r="C444" t="n">
         <v>442</v>
       </c>
       <c r="D444" s="2" t="n">
-        <v>45862.44100694444</v>
+        <v>45862.44332175926</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -8888,13 +8888,13 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C445" t="n">
         <v>443</v>
       </c>
       <c r="D445" s="2" t="n">
-        <v>45862.4410300926</v>
+        <v>45862.44334490741</v>
       </c>
       <c r="E445" t="n">
         <v>0</v>
@@ -8907,13 +8907,13 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>56.68</v>
+        <v>56.95</v>
       </c>
       <c r="C446" t="n">
         <v>444</v>
       </c>
       <c r="D446" s="2" t="n">
-        <v>45862.44105324074</v>
+        <v>45862.44336805555</v>
       </c>
       <c r="E446" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>56.68</v>
+        <v>56.95</v>
       </c>
       <c r="C447" t="n">
         <v>445</v>
       </c>
       <c r="D447" s="2" t="n">
-        <v>45862.44107638889</v>
+        <v>45862.44339120371</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -8945,13 +8945,13 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>56.66</v>
+        <v>56.99</v>
       </c>
       <c r="C448" t="n">
         <v>446</v>
       </c>
       <c r="D448" s="2" t="n">
-        <v>45862.44109953703</v>
+        <v>45862.44342592593</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -8964,13 +8964,13 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>56.6</v>
+        <v>56.95</v>
       </c>
       <c r="C449" t="n">
         <v>447</v>
       </c>
       <c r="D449" s="2" t="n">
-        <v>45862.44112268519</v>
+        <v>45862.4434375</v>
       </c>
       <c r="E449" t="n">
         <v>0</v>
@@ -8983,13 +8983,13 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>56.88</v>
+        <v>56.95</v>
       </c>
       <c r="C450" t="n">
         <v>448</v>
       </c>
       <c r="D450" s="2" t="n">
-        <v>45862.44114583333</v>
+        <v>45862.44346064814</v>
       </c>
       <c r="E450" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>56.6</v>
+        <v>57.09</v>
       </c>
       <c r="C451" t="n">
         <v>449</v>
       </c>
       <c r="D451" s="2" t="n">
-        <v>45862.44116898148</v>
+        <v>45862.4434837963</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -9021,13 +9021,13 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>56.6</v>
+        <v>56.95</v>
       </c>
       <c r="C452" t="n">
         <v>450</v>
       </c>
       <c r="D452" s="2" t="n">
-        <v>45862.44119212963</v>
+        <v>45862.44351851852</v>
       </c>
       <c r="E452" t="n">
         <v>0</v>
@@ -9040,13 +9040,13 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C453" t="n">
         <v>451</v>
       </c>
       <c r="D453" s="2" t="n">
-        <v>45862.44121527778</v>
+        <v>45862.44353009259</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -9059,13 +9059,13 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>56.52</v>
+        <v>56.8</v>
       </c>
       <c r="C454" t="n">
         <v>452</v>
       </c>
       <c r="D454" s="2" t="n">
-        <v>45862.44123842593</v>
+        <v>45862.44356481481</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C455" t="n">
         <v>453</v>
       </c>
       <c r="D455" s="2" t="n">
-        <v>45862.44126157407</v>
+        <v>45862.44357638889</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
@@ -9097,16 +9097,16 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C456" t="n">
         <v>454</v>
       </c>
       <c r="D456" s="2" t="n">
-        <v>45862.44128472222</v>
+        <v>45862.44359953704</v>
       </c>
       <c r="E456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -9116,16 +9116,16 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C457" t="n">
         <v>455</v>
       </c>
       <c r="D457" s="2" t="n">
-        <v>45862.44130787037</v>
+        <v>45862.44362268518</v>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -9135,16 +9135,16 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C458" t="n">
         <v>456</v>
       </c>
       <c r="D458" s="2" t="n">
-        <v>45862.44133101852</v>
+        <v>45862.44365740741</v>
       </c>
       <c r="E458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -9154,16 +9154,16 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>56.69</v>
+        <v>56.95</v>
       </c>
       <c r="C459" t="n">
         <v>457</v>
       </c>
       <c r="D459" s="2" t="n">
-        <v>45862.44135416667</v>
+        <v>45862.44368055555</v>
       </c>
       <c r="E459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -9173,16 +9173,16 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>56.66</v>
+        <v>56.95</v>
       </c>
       <c r="C460" t="n">
         <v>458</v>
       </c>
       <c r="D460" s="2" t="n">
-        <v>45862.44137731481</v>
+        <v>45862.44370370371</v>
       </c>
       <c r="E460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -9192,16 +9192,16 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C461" t="n">
         <v>459</v>
       </c>
       <c r="D461" s="2" t="n">
-        <v>45862.44140046297</v>
+        <v>45862.44371527778</v>
       </c>
       <c r="E461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -9211,16 +9211,16 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>56.74</v>
+        <v>56.95</v>
       </c>
       <c r="C462" t="n">
         <v>460</v>
       </c>
       <c r="D462" s="2" t="n">
-        <v>45862.44142361111</v>
+        <v>45862.44373842593</v>
       </c>
       <c r="E462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -9230,16 +9230,16 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>56.66</v>
+        <v>56.8</v>
       </c>
       <c r="C463" t="n">
         <v>461</v>
       </c>
       <c r="D463" s="2" t="n">
-        <v>45862.44144675926</v>
+        <v>45862.44377314814</v>
       </c>
       <c r="E463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9249,13 +9249,13 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>56.74</v>
+        <v>57.15</v>
       </c>
       <c r="C464" t="n">
         <v>462</v>
       </c>
       <c r="D464" s="2" t="n">
-        <v>45862.4414699074</v>
+        <v>45862.4437962963</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -9268,13 +9268,13 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>56.74</v>
+        <v>57.15</v>
       </c>
       <c r="C465" t="n">
         <v>463</v>
       </c>
       <c r="D465" s="2" t="n">
-        <v>45862.44149305556</v>
+        <v>45862.44380787037</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
@@ -9287,16 +9287,16 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>56.66</v>
+        <v>56.88</v>
       </c>
       <c r="C466" t="n">
         <v>464</v>
       </c>
       <c r="D466" s="2" t="n">
-        <v>45862.4415162037</v>
+        <v>45862.44384259259</v>
       </c>
       <c r="E466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -9306,13 +9306,13 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C467" t="n">
         <v>465</v>
       </c>
       <c r="D467" s="2" t="n">
-        <v>45862.44153935185</v>
+        <v>45862.44386574074</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>56.74</v>
+        <v>57.01</v>
       </c>
       <c r="C468" t="n">
         <v>466</v>
       </c>
       <c r="D468" s="2" t="n">
-        <v>45862.4415625</v>
+        <v>45862.44388888889</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
@@ -9344,16 +9344,16 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C469" t="n">
         <v>467</v>
       </c>
       <c r="D469" s="2" t="n">
-        <v>45862.44158564815</v>
+        <v>45862.44391203704</v>
       </c>
       <c r="E469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -9363,16 +9363,16 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>56.6</v>
+        <v>56.8</v>
       </c>
       <c r="C470" t="n">
         <v>468</v>
       </c>
       <c r="D470" s="2" t="n">
-        <v>45862.4416087963</v>
+        <v>45862.44392361111</v>
       </c>
       <c r="E470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9382,16 +9382,16 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C471" t="n">
         <v>469</v>
       </c>
       <c r="D471" s="2" t="n">
-        <v>45862.44163194444</v>
+        <v>45862.44395833334</v>
       </c>
       <c r="E471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -9401,16 +9401,16 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>56.8</v>
+        <v>56.88</v>
       </c>
       <c r="C472" t="n">
         <v>470</v>
       </c>
       <c r="D472" s="2" t="n">
-        <v>45862.4416550926</v>
+        <v>45862.44398148148</v>
       </c>
       <c r="E472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -9420,16 +9420,16 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>56.8</v>
+        <v>56.95</v>
       </c>
       <c r="C473" t="n">
         <v>471</v>
       </c>
       <c r="D473" s="2" t="n">
-        <v>45862.44167824074</v>
+        <v>45862.44400462963</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -9439,16 +9439,16 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>57.02</v>
+        <v>56.95</v>
       </c>
       <c r="C474" t="n">
         <v>472</v>
       </c>
       <c r="D474" s="2" t="n">
-        <v>45862.44170138889</v>
+        <v>45862.44402777778</v>
       </c>
       <c r="E474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -9458,16 +9458,16 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>57.09</v>
+        <v>56.95</v>
       </c>
       <c r="C475" t="n">
         <v>473</v>
       </c>
       <c r="D475" s="2" t="n">
-        <v>45862.44172453704</v>
+        <v>45862.44403935185</v>
       </c>
       <c r="E475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -9483,7 +9483,7 @@
         <v>474</v>
       </c>
       <c r="D476" s="2" t="n">
-        <v>45862.44174768519</v>
+        <v>45862.44407407408</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -9496,16 +9496,16 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>57.01</v>
+        <v>56.88</v>
       </c>
       <c r="C477" t="n">
         <v>475</v>
       </c>
       <c r="D477" s="2" t="n">
-        <v>45862.44177083333</v>
+        <v>45862.44409722222</v>
       </c>
       <c r="E477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -9515,16 +9515,16 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>57.09</v>
+        <v>56.91</v>
       </c>
       <c r="C478" t="n">
         <v>476</v>
       </c>
       <c r="D478" s="2" t="n">
-        <v>45862.44179398148</v>
+        <v>45862.44412037037</v>
       </c>
       <c r="E478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -9534,16 +9534,16 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>57.09</v>
+        <v>56.95</v>
       </c>
       <c r="C479" t="n">
         <v>477</v>
       </c>
       <c r="D479" s="2" t="n">
-        <v>45862.44181712963</v>
+        <v>45862.44414351852</v>
       </c>
       <c r="E479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -9553,16 +9553,16 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>57.09</v>
+        <v>56.95</v>
       </c>
       <c r="C480" t="n">
         <v>478</v>
       </c>
       <c r="D480" s="2" t="n">
-        <v>45862.44184027778</v>
+        <v>45862.44416666667</v>
       </c>
       <c r="E480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -9572,16 +9572,16 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>57.09</v>
+        <v>56.95</v>
       </c>
       <c r="C481" t="n">
         <v>479</v>
       </c>
       <c r="D481" s="2" t="n">
-        <v>45862.44186342593</v>
+        <v>45862.44418981481</v>
       </c>
       <c r="E481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -9591,16 +9591,16 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>57.15</v>
+        <v>56.9</v>
       </c>
       <c r="C482" t="n">
         <v>480</v>
       </c>
       <c r="D482" s="2" t="n">
-        <v>45862.44188657407</v>
+        <v>45862.44421296296</v>
       </c>
       <c r="E482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -9610,16 +9610,16 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>56.8</v>
+        <v>57.01</v>
       </c>
       <c r="C483" t="n">
         <v>481</v>
       </c>
       <c r="D483" s="2" t="n">
-        <v>45862.44190972222</v>
+        <v>45862.44423611111</v>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -9635,7 +9635,7 @@
         <v>482</v>
       </c>
       <c r="D484" s="2" t="n">
-        <v>45862.44193287037</v>
+        <v>45862.44425925926</v>
       </c>
       <c r="E484" t="n">
         <v>0</v>
@@ -9648,16 +9648,16 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>56.95</v>
+        <v>57.01</v>
       </c>
       <c r="C485" t="n">
         <v>483</v>
       </c>
       <c r="D485" s="2" t="n">
-        <v>45862.44195601852</v>
+        <v>45862.44428240741</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -9667,16 +9667,16 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>56.95</v>
+        <v>57.01</v>
       </c>
       <c r="C486" t="n">
         <v>484</v>
       </c>
       <c r="D486" s="2" t="n">
-        <v>45862.44197916667</v>
+        <v>45862.44430555555</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -9686,13 +9686,13 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>56.95</v>
+        <v>56.8</v>
       </c>
       <c r="C487" t="n">
         <v>485</v>
       </c>
       <c r="D487" s="2" t="n">
-        <v>45862.44200231481</v>
+        <v>45862.44432870371</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
@@ -9705,13 +9705,13 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>57.01</v>
+        <v>57.09</v>
       </c>
       <c r="C488" t="n">
         <v>486</v>
       </c>
       <c r="D488" s="2" t="n">
-        <v>45862.44202546297</v>
+        <v>45862.44435185185</v>
       </c>
       <c r="E488" t="n">
         <v>1</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>57.09</v>
+        <v>56.8</v>
       </c>
       <c r="C489" t="n">
         <v>487</v>
       </c>
       <c r="D489" s="2" t="n">
-        <v>45862.44204861111</v>
+        <v>45862.444375</v>
       </c>
       <c r="E489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -9749,7 +9749,7 @@
         <v>488</v>
       </c>
       <c r="D490" s="2" t="n">
-        <v>45862.44207175926</v>
+        <v>45862.44439814815</v>
       </c>
       <c r="E490" t="n">
         <v>1</v>
@@ -9768,7 +9768,7 @@
         <v>489</v>
       </c>
       <c r="D491" s="2" t="n">
-        <v>45862.4420949074</v>
+        <v>45862.4444212963</v>
       </c>
       <c r="E491" t="n">
         <v>1</v>
@@ -9781,16 +9781,16 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>57.09</v>
+        <v>56.8</v>
       </c>
       <c r="C492" t="n">
         <v>490</v>
       </c>
       <c r="D492" s="2" t="n">
-        <v>45862.44211805556</v>
+        <v>45862.44444444445</v>
       </c>
       <c r="E492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -9806,7 +9806,7 @@
         <v>491</v>
       </c>
       <c r="D493" s="2" t="n">
-        <v>45862.4421412037</v>
+        <v>45862.44446759259</v>
       </c>
       <c r="E493" t="n">
         <v>1</v>
@@ -9819,16 +9819,16 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>57.01</v>
+        <v>56.8</v>
       </c>
       <c r="C494" t="n">
         <v>492</v>
       </c>
       <c r="D494" s="2" t="n">
-        <v>45862.44216435185</v>
+        <v>45862.44449074074</v>
       </c>
       <c r="E494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -9838,16 +9838,16 @@
         </is>
       </c>
       <c r="B495" t="n">
-        <v>57.01</v>
+        <v>56.8</v>
       </c>
       <c r="C495" t="n">
         <v>493</v>
       </c>
       <c r="D495" s="2" t="n">
-        <v>45862.4421875</v>
+        <v>45862.44451388889</v>
       </c>
       <c r="E495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -9863,7 +9863,7 @@
         <v>494</v>
       </c>
       <c r="D496" s="2" t="n">
-        <v>45862.44221064815</v>
+        <v>45862.44453703704</v>
       </c>
       <c r="E496" t="n">
         <v>1</v>
@@ -9876,16 +9876,16 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>57.01</v>
+        <v>56.8</v>
       </c>
       <c r="C497" t="n">
         <v>495</v>
       </c>
       <c r="D497" s="2" t="n">
-        <v>45862.4422337963</v>
+        <v>45862.44456018518</v>
       </c>
       <c r="E497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -9895,16 +9895,16 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>57.01</v>
+        <v>56.8</v>
       </c>
       <c r="C498" t="n">
         <v>496</v>
       </c>
       <c r="D498" s="2" t="n">
-        <v>45862.44225694444</v>
+        <v>45862.44458333333</v>
       </c>
       <c r="E498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -9914,1915 +9914,15 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>57.15</v>
+        <v>57.01</v>
       </c>
       <c r="C499" t="n">
         <v>497</v>
       </c>
       <c r="D499" s="2" t="n">
-        <v>45862.44228009259</v>
+        <v>45862.44460648148</v>
       </c>
       <c r="E499" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B500" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C500" t="n">
-        <v>498</v>
-      </c>
-      <c r="D500" s="2" t="n">
-        <v>45862.44230324074</v>
-      </c>
-      <c r="E500" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B501" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C501" t="n">
-        <v>499</v>
-      </c>
-      <c r="D501" s="2" t="n">
-        <v>45862.44232638889</v>
-      </c>
-      <c r="E501" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B502" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C502" t="n">
-        <v>500</v>
-      </c>
-      <c r="D502" s="2" t="n">
-        <v>45862.44234953704</v>
-      </c>
-      <c r="E502" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B503" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C503" t="n">
-        <v>501</v>
-      </c>
-      <c r="D503" s="2" t="n">
-        <v>45862.44237268518</v>
-      </c>
-      <c r="E503" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B504" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C504" t="n">
-        <v>502</v>
-      </c>
-      <c r="D504" s="2" t="n">
-        <v>45862.44239583334</v>
-      </c>
-      <c r="E504" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B505" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C505" t="n">
-        <v>503</v>
-      </c>
-      <c r="D505" s="2" t="n">
-        <v>45862.44241898148</v>
-      </c>
-      <c r="E505" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B506" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C506" t="n">
-        <v>504</v>
-      </c>
-      <c r="D506" s="2" t="n">
-        <v>45862.44244212963</v>
-      </c>
-      <c r="E506" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B507" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C507" t="n">
-        <v>505</v>
-      </c>
-      <c r="D507" s="2" t="n">
-        <v>45862.44246527777</v>
-      </c>
-      <c r="E507" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B508" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C508" t="n">
-        <v>506</v>
-      </c>
-      <c r="D508" s="2" t="n">
-        <v>45862.44248842593</v>
-      </c>
-      <c r="E508" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B509" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C509" t="n">
-        <v>507</v>
-      </c>
-      <c r="D509" s="2" t="n">
-        <v>45862.44251157407</v>
-      </c>
-      <c r="E509" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B510" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C510" t="n">
-        <v>508</v>
-      </c>
-      <c r="D510" s="2" t="n">
-        <v>45862.44253472222</v>
-      </c>
-      <c r="E510" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B511" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C511" t="n">
-        <v>509</v>
-      </c>
-      <c r="D511" s="2" t="n">
-        <v>45862.44255787037</v>
-      </c>
-      <c r="E511" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B512" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C512" t="n">
-        <v>510</v>
-      </c>
-      <c r="D512" s="2" t="n">
-        <v>45862.44258101852</v>
-      </c>
-      <c r="E512" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B513" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C513" t="n">
-        <v>511</v>
-      </c>
-      <c r="D513" s="2" t="n">
-        <v>45862.44260416667</v>
-      </c>
-      <c r="E513" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B514" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C514" t="n">
-        <v>512</v>
-      </c>
-      <c r="D514" s="2" t="n">
-        <v>45862.44262731481</v>
-      </c>
-      <c r="E514" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B515" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C515" t="n">
-        <v>513</v>
-      </c>
-      <c r="D515" s="2" t="n">
-        <v>45862.44265046297</v>
-      </c>
-      <c r="E515" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B516" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C516" t="n">
-        <v>514</v>
-      </c>
-      <c r="D516" s="2" t="n">
-        <v>45862.44267361111</v>
-      </c>
-      <c r="E516" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B517" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C517" t="n">
-        <v>515</v>
-      </c>
-      <c r="D517" s="2" t="n">
-        <v>45862.44269675926</v>
-      </c>
-      <c r="E517" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C518" t="n">
-        <v>516</v>
-      </c>
-      <c r="D518" s="2" t="n">
-        <v>45862.44271990741</v>
-      </c>
-      <c r="E518" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C519" t="n">
-        <v>517</v>
-      </c>
-      <c r="D519" s="2" t="n">
-        <v>45862.44274305556</v>
-      </c>
-      <c r="E519" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C520" t="n">
-        <v>518</v>
-      </c>
-      <c r="D520" s="2" t="n">
-        <v>45862.44276620371</v>
-      </c>
-      <c r="E520" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C521" t="n">
-        <v>519</v>
-      </c>
-      <c r="D521" s="2" t="n">
-        <v>45862.44278935185</v>
-      </c>
-      <c r="E521" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C522" t="n">
-        <v>520</v>
-      </c>
-      <c r="D522" s="2" t="n">
-        <v>45862.4428125</v>
-      </c>
-      <c r="E522" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C523" t="n">
-        <v>521</v>
-      </c>
-      <c r="D523" s="2" t="n">
-        <v>45862.44283564815</v>
-      </c>
-      <c r="E523" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C524" t="n">
-        <v>522</v>
-      </c>
-      <c r="D524" s="2" t="n">
-        <v>45862.44287037037</v>
-      </c>
-      <c r="E524" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B525" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C525" t="n">
-        <v>523</v>
-      </c>
-      <c r="D525" s="2" t="n">
-        <v>45862.44288194444</v>
-      </c>
-      <c r="E525" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B526" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C526" t="n">
-        <v>524</v>
-      </c>
-      <c r="D526" s="2" t="n">
-        <v>45862.44290509259</v>
-      </c>
-      <c r="E526" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B527" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C527" t="n">
-        <v>525</v>
-      </c>
-      <c r="D527" s="2" t="n">
-        <v>45862.44292824074</v>
-      </c>
-      <c r="E527" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B528" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C528" t="n">
-        <v>526</v>
-      </c>
-      <c r="D528" s="2" t="n">
-        <v>45862.44295138889</v>
-      </c>
-      <c r="E528" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B529" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C529" t="n">
-        <v>527</v>
-      </c>
-      <c r="D529" s="2" t="n">
-        <v>45862.44297453704</v>
-      </c>
-      <c r="E529" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B530" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C530" t="n">
-        <v>528</v>
-      </c>
-      <c r="D530" s="2" t="n">
-        <v>45862.44299768518</v>
-      </c>
-      <c r="E530" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B531" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C531" t="n">
-        <v>529</v>
-      </c>
-      <c r="D531" s="2" t="n">
-        <v>45862.44302083334</v>
-      </c>
-      <c r="E531" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B532" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C532" t="n">
-        <v>530</v>
-      </c>
-      <c r="D532" s="2" t="n">
-        <v>45862.44304398148</v>
-      </c>
-      <c r="E532" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B533" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C533" t="n">
-        <v>531</v>
-      </c>
-      <c r="D533" s="2" t="n">
-        <v>45862.44306712963</v>
-      </c>
-      <c r="E533" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B534" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C534" t="n">
-        <v>532</v>
-      </c>
-      <c r="D534" s="2" t="n">
-        <v>45862.44310185185</v>
-      </c>
-      <c r="E534" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B535" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C535" t="n">
-        <v>533</v>
-      </c>
-      <c r="D535" s="2" t="n">
-        <v>45862.44311342593</v>
-      </c>
-      <c r="E535" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B536" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C536" t="n">
-        <v>534</v>
-      </c>
-      <c r="D536" s="2" t="n">
-        <v>45862.44313657407</v>
-      </c>
-      <c r="E536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C537" t="n">
-        <v>535</v>
-      </c>
-      <c r="D537" s="2" t="n">
-        <v>45862.44315972222</v>
-      </c>
-      <c r="E537" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C538" t="n">
-        <v>536</v>
-      </c>
-      <c r="D538" s="2" t="n">
-        <v>45862.44318287037</v>
-      </c>
-      <c r="E538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B539" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C539" t="n">
-        <v>537</v>
-      </c>
-      <c r="D539" s="2" t="n">
-        <v>45862.44321759259</v>
-      </c>
-      <c r="E539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B540" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C540" t="n">
-        <v>538</v>
-      </c>
-      <c r="D540" s="2" t="n">
-        <v>45862.44322916667</v>
-      </c>
-      <c r="E540" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B541" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C541" t="n">
-        <v>539</v>
-      </c>
-      <c r="D541" s="2" t="n">
-        <v>45862.44325231481</v>
-      </c>
-      <c r="E541" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B542" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C542" t="n">
-        <v>540</v>
-      </c>
-      <c r="D542" s="2" t="n">
-        <v>45862.44327546296</v>
-      </c>
-      <c r="E542" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="C543" t="n">
-        <v>541</v>
-      </c>
-      <c r="D543" s="2" t="n">
-        <v>45862.44329861111</v>
-      </c>
-      <c r="E543" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C544" t="n">
-        <v>542</v>
-      </c>
-      <c r="D544" s="2" t="n">
-        <v>45862.44332175926</v>
-      </c>
-      <c r="E544" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B545" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C545" t="n">
-        <v>543</v>
-      </c>
-      <c r="D545" s="2" t="n">
-        <v>45862.44334490741</v>
-      </c>
-      <c r="E545" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B546" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C546" t="n">
-        <v>544</v>
-      </c>
-      <c r="D546" s="2" t="n">
-        <v>45862.44336805555</v>
-      </c>
-      <c r="E546" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B547" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C547" t="n">
-        <v>545</v>
-      </c>
-      <c r="D547" s="2" t="n">
-        <v>45862.44339120371</v>
-      </c>
-      <c r="E547" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B548" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="C548" t="n">
-        <v>546</v>
-      </c>
-      <c r="D548" s="2" t="n">
-        <v>45862.44342592593</v>
-      </c>
-      <c r="E548" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B549" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C549" t="n">
-        <v>547</v>
-      </c>
-      <c r="D549" s="2" t="n">
-        <v>45862.4434375</v>
-      </c>
-      <c r="E549" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B550" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C550" t="n">
-        <v>548</v>
-      </c>
-      <c r="D550" s="2" t="n">
-        <v>45862.44346064814</v>
-      </c>
-      <c r="E550" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B551" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C551" t="n">
-        <v>549</v>
-      </c>
-      <c r="D551" s="2" t="n">
-        <v>45862.4434837963</v>
-      </c>
-      <c r="E551" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B552" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C552" t="n">
-        <v>550</v>
-      </c>
-      <c r="D552" s="2" t="n">
-        <v>45862.44351851852</v>
-      </c>
-      <c r="E552" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B553" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C553" t="n">
-        <v>551</v>
-      </c>
-      <c r="D553" s="2" t="n">
-        <v>45862.44353009259</v>
-      </c>
-      <c r="E553" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B554" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C554" t="n">
-        <v>552</v>
-      </c>
-      <c r="D554" s="2" t="n">
-        <v>45862.44356481481</v>
-      </c>
-      <c r="E554" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B555" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C555" t="n">
-        <v>553</v>
-      </c>
-      <c r="D555" s="2" t="n">
-        <v>45862.44357638889</v>
-      </c>
-      <c r="E555" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B556" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C556" t="n">
-        <v>554</v>
-      </c>
-      <c r="D556" s="2" t="n">
-        <v>45862.44359953704</v>
-      </c>
-      <c r="E556" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B557" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C557" t="n">
-        <v>555</v>
-      </c>
-      <c r="D557" s="2" t="n">
-        <v>45862.44362268518</v>
-      </c>
-      <c r="E557" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B558" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C558" t="n">
-        <v>556</v>
-      </c>
-      <c r="D558" s="2" t="n">
-        <v>45862.44365740741</v>
-      </c>
-      <c r="E558" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B559" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C559" t="n">
-        <v>557</v>
-      </c>
-      <c r="D559" s="2" t="n">
-        <v>45862.44368055555</v>
-      </c>
-      <c r="E559" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B560" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C560" t="n">
-        <v>558</v>
-      </c>
-      <c r="D560" s="2" t="n">
-        <v>45862.44370370371</v>
-      </c>
-      <c r="E560" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B561" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C561" t="n">
-        <v>559</v>
-      </c>
-      <c r="D561" s="2" t="n">
-        <v>45862.44371527778</v>
-      </c>
-      <c r="E561" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B562" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C562" t="n">
-        <v>560</v>
-      </c>
-      <c r="D562" s="2" t="n">
-        <v>45862.44373842593</v>
-      </c>
-      <c r="E562" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B563" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C563" t="n">
-        <v>561</v>
-      </c>
-      <c r="D563" s="2" t="n">
-        <v>45862.44377314814</v>
-      </c>
-      <c r="E563" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B564" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C564" t="n">
-        <v>562</v>
-      </c>
-      <c r="D564" s="2" t="n">
-        <v>45862.4437962963</v>
-      </c>
-      <c r="E564" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B565" t="n">
-        <v>57.15</v>
-      </c>
-      <c r="C565" t="n">
-        <v>563</v>
-      </c>
-      <c r="D565" s="2" t="n">
-        <v>45862.44380787037</v>
-      </c>
-      <c r="E565" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B566" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C566" t="n">
-        <v>564</v>
-      </c>
-      <c r="D566" s="2" t="n">
-        <v>45862.44384259259</v>
-      </c>
-      <c r="E566" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B567" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C567" t="n">
-        <v>565</v>
-      </c>
-      <c r="D567" s="2" t="n">
-        <v>45862.44386574074</v>
-      </c>
-      <c r="E567" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B568" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C568" t="n">
-        <v>566</v>
-      </c>
-      <c r="D568" s="2" t="n">
-        <v>45862.44388888889</v>
-      </c>
-      <c r="E568" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B569" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C569" t="n">
-        <v>567</v>
-      </c>
-      <c r="D569" s="2" t="n">
-        <v>45862.44391203704</v>
-      </c>
-      <c r="E569" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B570" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C570" t="n">
-        <v>568</v>
-      </c>
-      <c r="D570" s="2" t="n">
-        <v>45862.44392361111</v>
-      </c>
-      <c r="E570" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B571" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C571" t="n">
-        <v>569</v>
-      </c>
-      <c r="D571" s="2" t="n">
-        <v>45862.44395833334</v>
-      </c>
-      <c r="E571" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B572" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C572" t="n">
-        <v>570</v>
-      </c>
-      <c r="D572" s="2" t="n">
-        <v>45862.44398148148</v>
-      </c>
-      <c r="E572" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B573" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C573" t="n">
-        <v>571</v>
-      </c>
-      <c r="D573" s="2" t="n">
-        <v>45862.44400462963</v>
-      </c>
-      <c r="E573" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B574" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C574" t="n">
-        <v>572</v>
-      </c>
-      <c r="D574" s="2" t="n">
-        <v>45862.44402777778</v>
-      </c>
-      <c r="E574" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B575" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C575" t="n">
-        <v>573</v>
-      </c>
-      <c r="D575" s="2" t="n">
-        <v>45862.44403935185</v>
-      </c>
-      <c r="E575" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B576" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C576" t="n">
-        <v>574</v>
-      </c>
-      <c r="D576" s="2" t="n">
-        <v>45862.44407407408</v>
-      </c>
-      <c r="E576" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B577" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C577" t="n">
-        <v>575</v>
-      </c>
-      <c r="D577" s="2" t="n">
-        <v>45862.44409722222</v>
-      </c>
-      <c r="E577" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B578" t="n">
-        <v>56.91</v>
-      </c>
-      <c r="C578" t="n">
-        <v>576</v>
-      </c>
-      <c r="D578" s="2" t="n">
-        <v>45862.44412037037</v>
-      </c>
-      <c r="E578" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B579" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C579" t="n">
-        <v>577</v>
-      </c>
-      <c r="D579" s="2" t="n">
-        <v>45862.44414351852</v>
-      </c>
-      <c r="E579" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B580" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C580" t="n">
-        <v>578</v>
-      </c>
-      <c r="D580" s="2" t="n">
-        <v>45862.44416666667</v>
-      </c>
-      <c r="E580" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B581" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="C581" t="n">
-        <v>579</v>
-      </c>
-      <c r="D581" s="2" t="n">
-        <v>45862.44418981481</v>
-      </c>
-      <c r="E581" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B582" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="C582" t="n">
-        <v>580</v>
-      </c>
-      <c r="D582" s="2" t="n">
-        <v>45862.44421296296</v>
-      </c>
-      <c r="E582" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B583" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C583" t="n">
-        <v>581</v>
-      </c>
-      <c r="D583" s="2" t="n">
-        <v>45862.44423611111</v>
-      </c>
-      <c r="E583" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B584" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="C584" t="n">
-        <v>582</v>
-      </c>
-      <c r="D584" s="2" t="n">
-        <v>45862.44425925926</v>
-      </c>
-      <c r="E584" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B585" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C585" t="n">
-        <v>583</v>
-      </c>
-      <c r="D585" s="2" t="n">
-        <v>45862.44428240741</v>
-      </c>
-      <c r="E585" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B586" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C586" t="n">
-        <v>584</v>
-      </c>
-      <c r="D586" s="2" t="n">
-        <v>45862.44430555555</v>
-      </c>
-      <c r="E586" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B587" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C587" t="n">
-        <v>585</v>
-      </c>
-      <c r="D587" s="2" t="n">
-        <v>45862.44432870371</v>
-      </c>
-      <c r="E587" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B588" t="n">
-        <v>57.09</v>
-      </c>
-      <c r="C588" t="n">
-        <v>586</v>
-      </c>
-      <c r="D588" s="2" t="n">
-        <v>45862.44435185185</v>
-      </c>
-      <c r="E588" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B589" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C589" t="n">
-        <v>587</v>
-      </c>
-      <c r="D589" s="2" t="n">
-        <v>45862.444375</v>
-      </c>
-      <c r="E589" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B590" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C590" t="n">
-        <v>588</v>
-      </c>
-      <c r="D590" s="2" t="n">
-        <v>45862.44439814815</v>
-      </c>
-      <c r="E590" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B591" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C591" t="n">
-        <v>589</v>
-      </c>
-      <c r="D591" s="2" t="n">
-        <v>45862.4444212963</v>
-      </c>
-      <c r="E591" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B592" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C592" t="n">
-        <v>590</v>
-      </c>
-      <c r="D592" s="2" t="n">
-        <v>45862.44444444445</v>
-      </c>
-      <c r="E592" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B593" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C593" t="n">
-        <v>591</v>
-      </c>
-      <c r="D593" s="2" t="n">
-        <v>45862.44446759259</v>
-      </c>
-      <c r="E593" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B594" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C594" t="n">
-        <v>592</v>
-      </c>
-      <c r="D594" s="2" t="n">
-        <v>45862.44449074074</v>
-      </c>
-      <c r="E594" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B595" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C595" t="n">
-        <v>593</v>
-      </c>
-      <c r="D595" s="2" t="n">
-        <v>45862.44451388889</v>
-      </c>
-      <c r="E595" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B596" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C596" t="n">
-        <v>594</v>
-      </c>
-      <c r="D596" s="2" t="n">
-        <v>45862.44453703704</v>
-      </c>
-      <c r="E596" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B597" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C597" t="n">
-        <v>595</v>
-      </c>
-      <c r="D597" s="2" t="n">
-        <v>45862.44456018518</v>
-      </c>
-      <c r="E597" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B598" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="C598" t="n">
-        <v>596</v>
-      </c>
-      <c r="D598" s="2" t="n">
-        <v>45862.44458333333</v>
-      </c>
-      <c r="E598" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>JUL_24_3</t>
-        </is>
-      </c>
-      <c r="B599" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C599" t="n">
-        <v>597</v>
-      </c>
-      <c r="D599" s="2" t="n">
-        <v>45862.44460648148</v>
-      </c>
-      <c r="E599" t="n">
         <v>1</v>
       </c>
     </row>
